--- a/Рабочие материалы/Реальные группы/Новички_2020.xlsx
+++ b/Рабочие материалы/Реальные группы/Новички_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6555" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9407" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="2" r:id="rId1"/>
@@ -12,20 +12,22 @@
     <sheet name="ДА" sheetId="3" r:id="rId3"/>
     <sheet name="АВ" sheetId="5" r:id="rId4"/>
     <sheet name="ВМ" sheetId="4" r:id="rId5"/>
+    <sheet name="После карантина" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Form Responses 1'!$F$1:$F$71</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ВМ!$A$1:$N$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ВМ!$A$1:$N$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'После карантина'!$A$1:$F$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="863">
   <si>
     <t>Count of Фамилия обучающегося в именительном падеже (например, Дарвин)</t>
   </si>
@@ -2608,6 +2610,12 @@
   </si>
   <si>
     <t>la-solly@mail.ru</t>
+  </si>
+  <si>
+    <t>Выжили</t>
+  </si>
+  <si>
+    <t>Ермолаева Ульяна</t>
   </si>
 </sst>
 </file>
@@ -2615,12 +2623,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd,mm,yyyy"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="dd\,mm\,yyyy"/>
+    <numFmt numFmtId="179" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2651,8 +2659,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2674,99 +2773,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2779,16 +2788,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2815,7 +2823,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2833,13 +2913,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2851,19 +2925,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2875,13 +2973,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2893,109 +2997,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3043,30 +3051,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -3087,17 +3071,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3117,13 +3106,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3139,192 +3147,192 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3335,7 +3343,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -3352,11 +3360,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3364,55 +3372,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
+    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
+    <cellStyle name="Процент" xfId="9" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
+    <cellStyle name="Итого" xfId="11" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
+    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -6752,7 +6760,7 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="28">
-    <pivotField compact="0" numFmtId="176" showAll="0">
+    <pivotField compact="0" numFmtId="179" showAll="0">
       <items count="71">
         <item x="0"/>
         <item x="1"/>
@@ -7219,15 +7227,15 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73333333333333" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="13.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.63809523809524" customWidth="1"/>
-    <col min="2" max="2" width="3.54285714285714" customWidth="1"/>
-    <col min="3" max="3" width="5.63809523809524" customWidth="1"/>
+    <col min="1" max="1" width="6.63888888888889" customWidth="1"/>
+    <col min="2" max="2" width="3.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="5.63888888888889" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="5.45714285714286" customWidth="1"/>
-    <col min="6" max="6" width="3.45714285714286" customWidth="1"/>
-    <col min="7" max="7" width="11.2666666666667"/>
+    <col min="5" max="5" width="5.4537037037037" customWidth="1"/>
+    <col min="6" max="6" width="3.4537037037037" customWidth="1"/>
+    <col min="7" max="7" width="11.2685185185185"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
@@ -7439,12 +7447,12 @@
       <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="34" width="21.5714285714286" customWidth="1"/>
+    <col min="1" max="34" width="21.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" spans="1:28">
+    <row r="1" ht="13.2" spans="1:28">
       <c r="A1" s="29" t="s">
         <v>10</v>
       </c>
@@ -7530,7 +7538,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" ht="12.75" spans="1:7">
+    <row r="2" ht="13.2" spans="1:7">
       <c r="A2" s="30">
         <v>44069.8451646065</v>
       </c>
@@ -7550,7 +7558,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" ht="12.75" spans="1:28">
+    <row r="3" ht="13.2" spans="1:28">
       <c r="A3" s="30">
         <v>44069.8469000579</v>
       </c>
@@ -7605,7 +7613,7 @@
       <c r="T3" s="31">
         <v>12</v>
       </c>
-      <c r="U3" s="38">
+      <c r="U3" s="37">
         <v>39606</v>
       </c>
       <c r="V3" s="31" t="s">
@@ -7630,7 +7638,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" ht="12.75" spans="1:7">
+    <row r="4" ht="13.2" spans="1:7">
       <c r="A4" s="30">
         <v>44069.8502457407</v>
       </c>
@@ -7650,7 +7658,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" ht="12.75" spans="1:28">
+    <row r="5" ht="13.2" spans="1:28">
       <c r="A5" s="30">
         <v>44069.8509578819</v>
       </c>
@@ -7708,7 +7716,7 @@
       <c r="T5" s="31">
         <v>11</v>
       </c>
-      <c r="U5" s="38">
+      <c r="U5" s="37">
         <v>40146</v>
       </c>
       <c r="V5" s="31" t="s">
@@ -7733,7 +7741,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" ht="12.75" spans="1:28">
+    <row r="6" ht="13.2" spans="1:28">
       <c r="A6" s="30">
         <v>44069.8542561921</v>
       </c>
@@ -7791,7 +7799,7 @@
       <c r="T6" s="31">
         <v>13</v>
       </c>
-      <c r="U6" s="38">
+      <c r="U6" s="37">
         <v>39035</v>
       </c>
       <c r="V6" s="31" t="s">
@@ -7816,7 +7824,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" ht="12.75" spans="1:28">
+    <row r="7" ht="13.2" spans="1:28">
       <c r="A7" s="30">
         <v>44069.8664397801</v>
       </c>
@@ -7877,7 +7885,7 @@
       <c r="T7" s="31">
         <v>11</v>
       </c>
-      <c r="U7" s="38">
+      <c r="U7" s="37">
         <v>39975</v>
       </c>
       <c r="V7" s="31" t="s">
@@ -7902,7 +7910,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" ht="12.75" spans="1:28">
+    <row r="8" ht="13.2" spans="1:28">
       <c r="A8" s="30">
         <v>44069.8697422801</v>
       </c>
@@ -7963,7 +7971,7 @@
       <c r="T8" s="31">
         <v>11</v>
       </c>
-      <c r="U8" s="38">
+      <c r="U8" s="37">
         <v>39819</v>
       </c>
       <c r="V8" s="31" t="s">
@@ -7988,7 +7996,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" ht="12.75" spans="1:28">
+    <row r="9" ht="13.2" spans="1:28">
       <c r="A9" s="30">
         <v>44069.8852382176</v>
       </c>
@@ -8049,7 +8057,7 @@
       <c r="T9" s="31">
         <v>11</v>
       </c>
-      <c r="U9" s="38">
+      <c r="U9" s="37">
         <v>40104</v>
       </c>
       <c r="V9" s="31" t="s">
@@ -8071,7 +8079,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" ht="12.75" spans="1:28">
+    <row r="10" ht="13.2" spans="1:28">
       <c r="A10" s="30">
         <v>44069.8871546759</v>
       </c>
@@ -8132,7 +8140,7 @@
       <c r="T10" s="31">
         <v>12</v>
       </c>
-      <c r="U10" s="38">
+      <c r="U10" s="37">
         <v>39657</v>
       </c>
       <c r="V10" s="31" t="s">
@@ -8157,7 +8165,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" ht="12.75" spans="1:27">
+    <row r="11" ht="13.2" spans="1:27">
       <c r="A11" s="30">
         <v>44069.8945654051</v>
       </c>
@@ -8218,7 +8226,7 @@
       <c r="T11" s="31">
         <v>11</v>
       </c>
-      <c r="U11" s="38">
+      <c r="U11" s="37">
         <v>39892</v>
       </c>
       <c r="V11" s="31" t="s">
@@ -8237,7 +8245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" ht="12.75" spans="1:28">
+    <row r="12" ht="13.2" spans="1:28">
       <c r="A12" s="30">
         <v>44069.8998637616</v>
       </c>
@@ -8298,7 +8306,7 @@
       <c r="T12" s="31">
         <v>11</v>
       </c>
-      <c r="U12" s="38">
+      <c r="U12" s="37">
         <v>40099</v>
       </c>
       <c r="V12" s="31" t="s">
@@ -8323,7 +8331,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" ht="12.75" spans="1:28">
+    <row r="13" ht="13.2" spans="1:28">
       <c r="A13" s="30">
         <v>44069.9173164815</v>
       </c>
@@ -8384,7 +8392,7 @@
       <c r="T13" s="31">
         <v>11</v>
       </c>
-      <c r="U13" s="38">
+      <c r="U13" s="37">
         <v>40130</v>
       </c>
       <c r="V13" s="31" t="s">
@@ -8409,7 +8417,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="12.75" spans="1:28">
+    <row r="14" ht="13.2" spans="1:28">
       <c r="A14" s="30">
         <v>44069.9242813426</v>
       </c>
@@ -8470,7 +8478,7 @@
       <c r="T14" s="31">
         <v>12</v>
       </c>
-      <c r="U14" s="38">
+      <c r="U14" s="37">
         <v>39331</v>
       </c>
       <c r="V14" s="31" t="s">
@@ -8495,7 +8503,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" ht="12.75" spans="1:28">
+    <row r="15" ht="13.2" spans="1:28">
       <c r="A15" s="30">
         <v>44069.958090544</v>
       </c>
@@ -8556,7 +8564,7 @@
       <c r="T15" s="31">
         <v>16</v>
       </c>
-      <c r="U15" s="38">
+      <c r="U15" s="37">
         <v>38132</v>
       </c>
       <c r="V15" s="31" t="s">
@@ -8581,7 +8589,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" ht="12.75" spans="1:28">
+    <row r="16" ht="13.2" spans="1:28">
       <c r="A16" s="30">
         <v>44070.0036169444</v>
       </c>
@@ -8642,7 +8650,7 @@
       <c r="T16" s="31">
         <v>11</v>
       </c>
-      <c r="U16" s="38">
+      <c r="U16" s="37">
         <v>44070</v>
       </c>
       <c r="V16" s="31" t="s">
@@ -8667,7 +8675,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" ht="12.75" spans="1:28">
+    <row r="17" ht="13.2" spans="1:28">
       <c r="A17" s="30">
         <v>44070.0060016319</v>
       </c>
@@ -8728,7 +8736,7 @@
       <c r="T17" s="31">
         <v>11</v>
       </c>
-      <c r="U17" s="38">
+      <c r="U17" s="37">
         <v>39742</v>
       </c>
       <c r="V17" s="31" t="s">
@@ -8753,7 +8761,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" ht="12.75" spans="1:7">
+    <row r="18" ht="13.2" spans="1:7">
       <c r="A18" s="30">
         <v>44070.0161173958</v>
       </c>
@@ -8776,7 +8784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="12.75" spans="1:28">
+    <row r="19" ht="13.2" spans="1:28">
       <c r="A19" s="30">
         <v>44070.0392437384</v>
       </c>
@@ -8837,7 +8845,7 @@
       <c r="T19" s="31">
         <v>11</v>
       </c>
-      <c r="U19" s="38">
+      <c r="U19" s="37">
         <v>39818</v>
       </c>
       <c r="V19" s="31" t="s">
@@ -8862,7 +8870,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" ht="12.75" spans="1:28">
+    <row r="20" ht="13.2" spans="1:28">
       <c r="A20" s="30">
         <v>44070.0719096528</v>
       </c>
@@ -8923,7 +8931,7 @@
       <c r="T20" s="31">
         <v>14</v>
       </c>
-      <c r="U20" s="38">
+      <c r="U20" s="37">
         <v>38801</v>
       </c>
       <c r="V20" s="31" t="s">
@@ -8948,7 +8956,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="12.75" spans="1:7">
+    <row r="21" ht="13.2" spans="1:7">
       <c r="A21" s="30">
         <v>44070.3457168171</v>
       </c>
@@ -8971,7 +8979,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" ht="12.75" spans="1:28">
+    <row r="22" ht="13.2" spans="1:28">
       <c r="A22" s="30">
         <v>44070.3711895023</v>
       </c>
@@ -9032,7 +9040,7 @@
       <c r="T22" s="31">
         <v>15</v>
       </c>
-      <c r="U22" s="38">
+      <c r="U22" s="37">
         <v>38478</v>
       </c>
       <c r="V22" s="31" t="s">
@@ -9057,7 +9065,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" ht="12.75" spans="1:28">
+    <row r="23" ht="13.2" spans="1:28">
       <c r="A23" s="30">
         <v>44070.3743015972</v>
       </c>
@@ -9118,7 +9126,7 @@
       <c r="T23" s="31">
         <v>11</v>
       </c>
-      <c r="U23" s="38">
+      <c r="U23" s="37">
         <v>40065</v>
       </c>
       <c r="V23" s="31" t="s">
@@ -9143,7 +9151,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" ht="12.75" spans="1:28">
+    <row r="24" ht="13.2" spans="1:28">
       <c r="A24" s="30">
         <v>44070.4403953241</v>
       </c>
@@ -9204,7 +9212,7 @@
       <c r="T24" s="31">
         <v>16</v>
       </c>
-      <c r="U24" s="38">
+      <c r="U24" s="37">
         <v>37958</v>
       </c>
       <c r="V24" s="31" t="s">
@@ -9226,7 +9234,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" ht="12.75" spans="1:7">
+    <row r="25" ht="13.2" spans="1:7">
       <c r="A25" s="30">
         <v>44070.4589317708</v>
       </c>
@@ -9249,7 +9257,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" ht="13.5" spans="1:7">
+    <row r="26" ht="13.95" spans="1:7">
       <c r="A26" s="30">
         <v>44070.4904913773</v>
       </c>
@@ -9333,7 +9341,7 @@
       <c r="T27" s="34">
         <v>12</v>
       </c>
-      <c r="U27" s="39">
+      <c r="U27" s="38">
         <v>39485</v>
       </c>
       <c r="V27" s="33" t="s">
@@ -9463,7 +9471,7 @@
       <c r="T29" s="34">
         <v>11</v>
       </c>
-      <c r="U29" s="39">
+      <c r="U29" s="38">
         <v>39787</v>
       </c>
       <c r="V29" s="33" t="s">
@@ -9549,7 +9557,7 @@
       <c r="T30" s="34">
         <v>11</v>
       </c>
-      <c r="U30" s="39">
+      <c r="U30" s="38">
         <v>40195</v>
       </c>
       <c r="V30" s="33" t="s">
@@ -9635,7 +9643,7 @@
       <c r="T31" s="34">
         <v>11</v>
       </c>
-      <c r="U31" s="39">
+      <c r="U31" s="38">
         <v>40004</v>
       </c>
       <c r="V31" s="33" t="s">
@@ -9721,7 +9729,7 @@
       <c r="T32" s="34">
         <v>13</v>
       </c>
-      <c r="U32" s="39">
+      <c r="U32" s="38">
         <v>39166</v>
       </c>
       <c r="V32" s="33" t="s">
@@ -9807,7 +9815,7 @@
       <c r="T33" s="34">
         <v>11</v>
       </c>
-      <c r="U33" s="39">
+      <c r="U33" s="38">
         <v>40070</v>
       </c>
       <c r="V33" s="33" t="s">
@@ -9893,7 +9901,7 @@
       <c r="T34" s="34">
         <v>11</v>
       </c>
-      <c r="U34" s="39">
+      <c r="U34" s="38">
         <v>39841</v>
       </c>
       <c r="V34" s="33" t="s">
@@ -9979,7 +9987,7 @@
       <c r="T35" s="34">
         <v>12</v>
       </c>
-      <c r="U35" s="39">
+      <c r="U35" s="38">
         <v>39554</v>
       </c>
       <c r="V35" s="33" t="s">
@@ -10065,7 +10073,7 @@
       <c r="T36" s="34">
         <v>11</v>
       </c>
-      <c r="U36" s="39">
+      <c r="U36" s="38">
         <v>39772</v>
       </c>
       <c r="V36" s="33" t="s">
@@ -10151,7 +10159,7 @@
       <c r="T37" s="34">
         <v>12</v>
       </c>
-      <c r="U37" s="39">
+      <c r="U37" s="38">
         <v>39491</v>
       </c>
       <c r="V37" s="33" t="s">
@@ -10235,7 +10243,7 @@
       <c r="T38" s="34">
         <v>11</v>
       </c>
-      <c r="U38" s="39">
+      <c r="U38" s="38">
         <v>39787</v>
       </c>
       <c r="V38" s="33" t="s">
@@ -10365,7 +10373,7 @@
       <c r="T40" s="34">
         <v>15</v>
       </c>
-      <c r="U40" s="39">
+      <c r="U40" s="38">
         <v>38267</v>
       </c>
       <c r="V40" s="34">
@@ -10451,7 +10459,7 @@
       <c r="T41" s="34">
         <v>11</v>
       </c>
-      <c r="U41" s="39">
+      <c r="U41" s="38">
         <v>39844</v>
       </c>
       <c r="V41" s="33" t="s">
@@ -10537,7 +10545,7 @@
       <c r="T42" s="34">
         <v>12</v>
       </c>
-      <c r="U42" s="39">
+      <c r="U42" s="38">
         <v>39733</v>
       </c>
       <c r="V42" s="33" t="s">
@@ -10620,7 +10628,7 @@
       <c r="S43" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="T43" s="37">
+      <c r="T43" s="39">
         <v>11</v>
       </c>
       <c r="U43" s="40">
@@ -10635,7 +10643,7 @@
       <c r="X43" s="36" t="s">
         <v>517</v>
       </c>
-      <c r="Y43" s="37">
+      <c r="Y43" s="39">
         <v>6</v>
       </c>
       <c r="Z43" s="36" t="s">
@@ -10709,7 +10717,7 @@
       <c r="T44" s="34">
         <v>12</v>
       </c>
-      <c r="U44" s="39">
+      <c r="U44" s="38">
         <v>39413</v>
       </c>
       <c r="V44" s="33" t="s">
@@ -10795,7 +10803,7 @@
       <c r="T45" s="34">
         <v>14</v>
       </c>
-      <c r="U45" s="39">
+      <c r="U45" s="38">
         <v>38855</v>
       </c>
       <c r="V45" s="33" t="s">
@@ -10881,7 +10889,7 @@
       <c r="T46" s="34">
         <v>11</v>
       </c>
-      <c r="U46" s="39">
+      <c r="U46" s="38">
         <v>39766</v>
       </c>
       <c r="V46" s="33" t="s">
@@ -10967,7 +10975,7 @@
       <c r="T47" s="34">
         <v>12</v>
       </c>
-      <c r="U47" s="39">
+      <c r="U47" s="38">
         <v>39578</v>
       </c>
       <c r="V47" s="33" t="s">
@@ -11053,7 +11061,7 @@
       <c r="T48" s="34">
         <v>11</v>
       </c>
-      <c r="U48" s="39">
+      <c r="U48" s="38">
         <v>39745</v>
       </c>
       <c r="V48" s="33" t="s">
@@ -11139,7 +11147,7 @@
       <c r="T49" s="34">
         <v>11</v>
       </c>
-      <c r="U49" s="39">
+      <c r="U49" s="38">
         <v>39850</v>
       </c>
       <c r="V49" s="33" t="s">
@@ -11225,7 +11233,7 @@
       <c r="T50" s="34">
         <v>13</v>
       </c>
-      <c r="U50" s="39">
+      <c r="U50" s="38">
         <v>39067</v>
       </c>
       <c r="V50" s="33" t="s">
@@ -11311,7 +11319,7 @@
       <c r="T51" s="34">
         <v>11</v>
       </c>
-      <c r="U51" s="39">
+      <c r="U51" s="38">
         <v>40284</v>
       </c>
       <c r="V51" s="33" t="s">
@@ -11397,7 +11405,7 @@
       <c r="T52" s="34">
         <v>12</v>
       </c>
-      <c r="U52" s="39">
+      <c r="U52" s="38">
         <v>39450</v>
       </c>
       <c r="V52" s="33" t="s">
@@ -11483,7 +11491,7 @@
       <c r="T53" s="34">
         <v>12</v>
       </c>
-      <c r="U53" s="39">
+      <c r="U53" s="38">
         <v>39652</v>
       </c>
       <c r="V53" s="33" t="s">
@@ -11569,7 +11577,7 @@
       <c r="T54" s="34">
         <v>11</v>
       </c>
-      <c r="U54" s="39">
+      <c r="U54" s="38">
         <v>39958</v>
       </c>
       <c r="V54" s="33" t="s">
@@ -11743,7 +11751,7 @@
       <c r="T57" s="34">
         <v>15</v>
       </c>
-      <c r="U57" s="39">
+      <c r="U57" s="38">
         <v>38434</v>
       </c>
       <c r="V57" s="33" t="s">
@@ -11829,7 +11837,7 @@
       <c r="T58" s="34">
         <v>13</v>
       </c>
-      <c r="U58" s="39">
+      <c r="U58" s="38">
         <v>39237</v>
       </c>
       <c r="V58" s="33" t="s">
@@ -11915,7 +11923,7 @@
       <c r="T59" s="34">
         <v>16</v>
       </c>
-      <c r="U59" s="39">
+      <c r="U59" s="38">
         <v>38094</v>
       </c>
       <c r="V59" s="33" t="s">
@@ -12177,7 +12185,7 @@
       <c r="T64" s="34">
         <v>12</v>
       </c>
-      <c r="U64" s="39">
+      <c r="U64" s="38">
         <v>39519</v>
       </c>
       <c r="V64" s="33" t="s">
@@ -12263,7 +12271,7 @@
       <c r="T65" s="34">
         <v>13</v>
       </c>
-      <c r="U65" s="39">
+      <c r="U65" s="38">
         <v>39258</v>
       </c>
       <c r="V65" s="33" t="s">
@@ -12393,7 +12401,7 @@
       <c r="T67" s="34">
         <v>15</v>
       </c>
-      <c r="U67" s="39">
+      <c r="U67" s="38">
         <v>38502</v>
       </c>
       <c r="V67" s="33" t="s">
@@ -12479,7 +12487,7 @@
       <c r="T68" s="34">
         <v>11</v>
       </c>
-      <c r="U68" s="39">
+      <c r="U68" s="38">
         <v>43953</v>
       </c>
       <c r="V68" s="33" t="s">
@@ -12565,7 +12573,7 @@
       <c r="T69" s="34">
         <v>11</v>
       </c>
-      <c r="U69" s="39">
+      <c r="U69" s="38">
         <v>39703</v>
       </c>
       <c r="V69" s="33" t="s">
@@ -12651,7 +12659,7 @@
       <c r="T70" s="34">
         <v>13</v>
       </c>
-      <c r="U70" s="39">
+      <c r="U70" s="38">
         <v>39169</v>
       </c>
       <c r="V70" s="33" t="s">
@@ -12742,31 +12750,31 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73333333333333" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="3.54285714285714" customWidth="1"/>
-    <col min="2" max="2" width="22.0952380952381" customWidth="1"/>
-    <col min="5" max="5" width="13.7333333333333" customWidth="1"/>
-    <col min="6" max="6" width="27.6380952380952" customWidth="1"/>
+    <col min="1" max="1" width="3.5462962962963" customWidth="1"/>
+    <col min="2" max="2" width="22.0925925925926" customWidth="1"/>
+    <col min="5" max="5" width="13.7314814814815" customWidth="1"/>
+    <col min="6" max="6" width="27.6388888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>774</v>
       </c>
     </row>
@@ -12777,32 +12785,32 @@
       <c r="B2" s="26" t="s">
         <v>775</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>9</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>15</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="6" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="3" ht="25.5" spans="1:6">
+    <row r="3" ht="39.6" spans="1:6">
       <c r="A3" s="26">
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>776</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="6" t="s">
         <v>690</v>
       </c>
     </row>
@@ -12813,12 +12821,12 @@
       <c r="B4" s="26" t="s">
         <v>777</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="6" t="s">
         <v>645</v>
       </c>
     </row>
@@ -12849,16 +12857,16 @@
       <c r="B6" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>8</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>14</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="6">
         <v>79119820337</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="6" t="s">
         <v>531</v>
       </c>
     </row>
@@ -12869,16 +12877,16 @@
       <c r="B7" s="26" t="s">
         <v>780</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>5</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>11</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="6">
         <v>79643641003</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="6" t="s">
         <v>434</v>
       </c>
     </row>
@@ -12889,16 +12897,16 @@
       <c r="B8" s="26" t="s">
         <v>781</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>6</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>11</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="6" t="s">
         <v>567</v>
       </c>
     </row>
@@ -12909,16 +12917,16 @@
       <c r="B9" s="26" t="s">
         <v>782</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>10</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>15</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>9006266514</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="6" t="s">
         <v>472</v>
       </c>
     </row>
@@ -12929,16 +12937,16 @@
       <c r="B10" s="26" t="s">
         <v>783</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>5</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>11</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="6" t="s">
         <v>604</v>
       </c>
     </row>
@@ -12949,16 +12957,16 @@
       <c r="B11" s="26" t="s">
         <v>784</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>6</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>12</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="6" t="s">
         <v>604</v>
       </c>
     </row>
@@ -12969,16 +12977,16 @@
       <c r="B12" s="26" t="s">
         <v>785</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>7</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>13</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="6" t="s">
         <v>713</v>
       </c>
     </row>
@@ -12989,12 +12997,12 @@
       <c r="B13" s="26" t="s">
         <v>786</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="17" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="6" t="s">
         <v>687</v>
       </c>
     </row>
@@ -13005,16 +13013,16 @@
       <c r="B14" s="26" t="s">
         <v>787</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>7</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>13</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>89588588090</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="6" t="s">
         <v>759</v>
       </c>
     </row>
@@ -13025,12 +13033,12 @@
       <c r="B15" s="26" t="s">
         <v>788</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="17">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="6">
         <v>79500353591</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="6" t="s">
         <v>648</v>
       </c>
     </row>
@@ -13041,16 +13049,16 @@
       <c r="B16" s="26" t="s">
         <v>789</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>5</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>11</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="6" t="s">
         <v>737</v>
       </c>
     </row>
@@ -13074,23 +13082,23 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" ht="25.5" spans="1:6">
+    <row r="18" ht="39.6" spans="1:6">
       <c r="A18" s="26">
         <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>791</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>6</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>12</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="6" t="s">
         <v>700</v>
       </c>
     </row>
@@ -13101,16 +13109,16 @@
       <c r="B19" s="26" t="s">
         <v>792</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>6</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>11</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="6" t="s">
         <v>408</v>
       </c>
     </row>
@@ -13127,7 +13135,7 @@
       <c r="D20" s="27">
         <v>13</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="27" t="s">
         <v>78</v>
       </c>
@@ -13141,112 +13149,112 @@
       <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="3" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>2</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="7">
         <v>10</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="7">
         <v>16</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>3</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="7">
         <v>10</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="7">
         <v>16</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="7" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>4</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <v>10</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>15</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="5" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>5</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <v>10</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>16</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="5">
         <v>79818904116</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="5" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>6</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="16" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="5" t="s">
         <v>696</v>
       </c>
     </row>
@@ -13268,337 +13276,337 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73333333333333" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="3.54285714285714" customWidth="1"/>
-    <col min="2" max="2" width="22.6380952380952" customWidth="1"/>
-    <col min="3" max="3" width="6.81904761904762" customWidth="1"/>
-    <col min="4" max="4" width="8.73333333333333" customWidth="1"/>
-    <col min="5" max="5" width="14.4571428571429" customWidth="1"/>
-    <col min="6" max="6" width="24.0952380952381" customWidth="1"/>
+    <col min="1" max="1" width="3.5462962962963" customWidth="1"/>
+    <col min="2" max="2" width="22.6388888888889" customWidth="1"/>
+    <col min="3" max="3" width="6.81481481481481" customWidth="1"/>
+    <col min="4" max="4" width="8.73148148148148" customWidth="1"/>
+    <col min="5" max="5" width="14.4537037037037" customWidth="1"/>
+    <col min="6" max="6" width="24.0925925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="7">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>801</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>7</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>12</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>89213954301</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="5" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="16" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="5" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="16" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="5" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>6</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>11</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="5" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>7</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>13</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="5" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="7">
         <v>11</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>6</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>11</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="5" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>5</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>11</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="5" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>6</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>12</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="5">
         <v>79219980607</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="5" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="7">
         <v>6</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>11</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="7" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>5</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>11</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="5" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>6</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>11</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="5" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>4</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>12</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="5" t="s">
         <v>615</v>
       </c>
     </row>
@@ -13611,112 +13619,112 @@
       <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="3" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>2</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="7">
         <v>10</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="7">
         <v>16</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>3</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="7">
         <v>10</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
         <v>16</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="7" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>4</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <v>10</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>15</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="5" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>5</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <v>10</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>16</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="5">
         <v>79818904116</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="5" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>6</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="16" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="5" t="s">
         <v>696</v>
       </c>
     </row>
@@ -13731,1374 +13739,1374 @@
   <sheetPr/>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="B$1:B$1048576 K$1:K$1048576 L$1:L$1048576 M$1:M$1048576 N$1:N$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73333333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.54285714285714" customWidth="1"/>
-    <col min="2" max="2" width="22.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="3.5462962962963" customWidth="1"/>
+    <col min="2" max="2" width="22.4259259259259" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="9" width="14.552380952381" customWidth="1"/>
-    <col min="10" max="10" width="27.1142857142857" customWidth="1"/>
-    <col min="13" max="13" width="15.4571428571429" customWidth="1"/>
-    <col min="14" max="14" width="27.1809523809524" customWidth="1"/>
+    <col min="4" max="9" width="14.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="27.1111111111111" customWidth="1"/>
+    <col min="13" max="13" width="15.4537037037037" customWidth="1"/>
+    <col min="14" max="14" width="27.1851851851852" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="18">
         <v>44100</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="18">
         <v>44107</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="18" t="s">
         <v>820</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="18">
         <v>44142</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="16" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="3">
+      <c r="A3" s="7">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="7">
         <v>5</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="7">
         <v>11</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="7">
         <v>9111701018</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
         <v>5</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="7">
         <v>11</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="3">
+      <c r="A5" s="7">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
         <v>6</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="7">
         <v>11</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="3">
+      <c r="A6" s="7">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
         <v>6</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="7">
         <v>12</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="3">
+      <c r="A7" s="7">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="10">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
         <v>6</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <v>12</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="5">
         <v>79052274602</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="10">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
         <v>10</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="8">
         <v>16</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="5">
         <v>79818904116</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="7">
         <v>5</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="7">
         <v>11</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="7">
         <v>10</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="7">
         <v>16</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="3">
+      <c r="A11" s="7">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
         <v>10</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="7">
         <v>16</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
         <v>8</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="7">
         <v>14</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="3">
+      <c r="A13" s="7">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="7">
         <v>4</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="7">
         <v>11</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="3" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="3">
+      <c r="A15" s="7">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="10">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="8">
         <v>5</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="8">
         <v>12</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="N15" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="3">
+      <c r="A16" s="7">
         <v>33</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="11">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="10">
         <v>5</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <v>11</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="6">
         <v>79119235920</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="N16" s="6" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="3">
+      <c r="A17" s="7">
         <v>10</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
         <v>7</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="7">
         <v>12</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="3">
+      <c r="A18" s="7">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="10">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
         <v>6</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="8">
         <v>12</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="N18" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="3">
+      <c r="A19" s="7">
         <v>23</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="10">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8">
         <v>5</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="8">
         <v>11</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="3">
+      <c r="A20" s="7">
         <v>21</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="10">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="8">
         <v>6</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="8">
         <v>11</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="M20" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="3">
+      <c r="A21" s="7">
         <v>12</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="7">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="7">
         <v>11</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="7">
         <v>9112313001</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="3">
+      <c r="A22" s="7">
         <v>34</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="11">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="10">
         <v>7</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <v>13</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="M22" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="3">
+      <c r="A23" s="7">
         <v>25</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="K23" s="10">
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8">
         <v>5</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="8">
         <v>11</v>
       </c>
-      <c r="M23" s="16" t="s">
+      <c r="M23" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="3">
+      <c r="A24" s="7">
         <v>28</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1">
-        <v>1</v>
-      </c>
-      <c r="K24" s="12">
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="11">
         <v>6</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="11">
         <v>11</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="N24" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="3">
+      <c r="A25" s="7">
         <v>32</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="11">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="10">
         <v>6</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="10">
         <v>12</v>
       </c>
-      <c r="M25" s="17" t="s">
+      <c r="M25" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="3">
+      <c r="A26" s="7">
         <v>35</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="17" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="N26" s="17" t="s">
+      <c r="N26" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="3">
+      <c r="A27" s="7">
         <v>20</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="10">
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8">
         <v>5</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="8">
         <v>11</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M27" s="5">
         <v>79657737525</v>
       </c>
-      <c r="N27" s="17" t="s">
+      <c r="N27" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="3">
+      <c r="A28" s="7">
         <v>2</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="7">
         <v>6</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="7">
         <v>12</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="M28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N28" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="3">
+      <c r="A29" s="7">
         <v>6</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="7">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="7">
         <v>11</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="3">
+      <c r="A30" s="7">
         <v>26</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1">
-        <v>1</v>
-      </c>
-      <c r="K30" s="9">
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
         <v>6</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="16" t="s">
+      <c r="L30" s="4"/>
+      <c r="M30" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="N30" s="17" t="s">
+      <c r="N30" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="A31" s="7">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="3" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="3">
+      <c r="A32" s="7">
         <v>13</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="3" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="N32" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="3">
+      <c r="A33" s="7">
         <v>19</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1">
-        <v>1</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="9">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
         <v>6</v>
       </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="16" t="s">
+      <c r="L33" s="4"/>
+      <c r="M33" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="3">
+      <c r="A34" s="7">
         <v>16</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1">
-        <v>1</v>
-      </c>
-      <c r="K34" s="8">
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
         <v>5</v>
       </c>
-      <c r="L34" s="8"/>
-      <c r="M34" s="3" t="s">
+      <c r="L34" s="3"/>
+      <c r="M34" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="5">
+      <c r="A35" s="19">
         <v>3</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="14">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="16">
         <v>10</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="16">
         <v>16</v>
       </c>
-      <c r="M35" s="14" t="s">
+      <c r="M35" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="N35" s="14" t="s">
+      <c r="N35" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="3">
+      <c r="A36" s="7">
         <v>17</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="3">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="7">
         <v>10</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="7">
         <v>16</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="N36" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
     </row>
     <row r="37" ht="10" customHeight="1" spans="1:17">
-      <c r="A37" s="3">
+      <c r="A37" s="7">
         <v>22</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1</v>
-      </c>
-      <c r="K37" s="10">
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="8">
         <v>7</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="8">
         <v>13</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M37" s="5">
         <v>79522270284</v>
       </c>
-      <c r="N37" s="17" t="s">
+      <c r="N37" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>4</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4">
-        <v>1</v>
-      </c>
-      <c r="H38" s="4">
-        <v>1</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1</v>
-      </c>
-      <c r="J38" s="4">
-        <v>1</v>
-      </c>
-      <c r="K38" s="10">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9">
+        <v>1</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9">
+        <v>1</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1</v>
+      </c>
+      <c r="J38" s="9">
+        <v>1</v>
+      </c>
+      <c r="K38" s="8">
         <v>10</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L38" s="8">
         <v>15</v>
       </c>
-      <c r="M38" s="16" t="s">
+      <c r="M38" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="N38" s="16" t="s">
+      <c r="N38" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="5"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="19"/>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" t="s">
@@ -15114,7 +15122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="2:14">
+    <row r="40" ht="13.8" spans="2:14">
       <c r="B40" t="s">
         <v>852</v>
       </c>
@@ -15136,7 +15144,7 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="N40" s="23" t="s">
+      <c r="N40" s="17" t="s">
         <v>853</v>
       </c>
     </row>
@@ -15168,7 +15176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="2:14">
+    <row r="43" ht="13.8" spans="2:14">
       <c r="B43" t="s">
         <v>856</v>
       </c>
@@ -15190,11 +15198,11 @@
       <c r="M43" t="s">
         <v>857</v>
       </c>
-      <c r="N43" s="23" t="s">
+      <c r="N43" s="17" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="2:14">
+    <row r="44" ht="13.8" spans="2:14">
       <c r="B44" t="s">
         <v>859</v>
       </c>
@@ -15204,12 +15212,12 @@
       <c r="K44">
         <v>7</v>
       </c>
-      <c r="N44" s="23" t="s">
+      <c r="N44" s="17" t="s">
         <v>860</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N43">
+  <autoFilter ref="A1:N44">
     <extLst/>
   </autoFilter>
   <sortState ref="A1:N42">
@@ -15237,4 +15245,736 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="22.4259259259259" customWidth="1"/>
+    <col min="2" max="3" width="8.73148148148148"/>
+    <col min="4" max="4" width="15.4537037037037" customWidth="1"/>
+    <col min="5" max="5" width="27.1851851851852" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B3" s="7">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7">
+        <v>9111701018</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B4" s="7">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B5" s="7">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B6" s="7">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5">
+        <v>79052274602</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="B8" s="8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5">
+        <v>79818904116</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="B10" s="7">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B11" s="7">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B14" s="8">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B15" s="10">
+        <v>5</v>
+      </c>
+      <c r="C15" s="10">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6">
+        <v>79119235920</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B16" s="7">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B17" s="8">
+        <v>6</v>
+      </c>
+      <c r="C17" s="8">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5</v>
+      </c>
+      <c r="C18" s="8">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B19" s="8">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B20" s="7">
+        <v>5</v>
+      </c>
+      <c r="C20" s="7">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7">
+        <v>9112313001</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B21" s="10">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10">
+        <v>13</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B22" s="8">
+        <v>5</v>
+      </c>
+      <c r="C22" s="8">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B23" s="11">
+        <v>6</v>
+      </c>
+      <c r="C23" s="11">
+        <v>11</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B24" s="10">
+        <v>6</v>
+      </c>
+      <c r="C24" s="10">
+        <v>12</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B26" s="8">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8">
+        <v>11</v>
+      </c>
+      <c r="D26" s="5">
+        <v>79657737525</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B27" s="7">
+        <v>6</v>
+      </c>
+      <c r="C27" s="7">
+        <v>12</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B28" s="7">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7">
+        <v>11</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B29" s="4">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B32" s="4">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="B34" s="16">
+        <v>10</v>
+      </c>
+      <c r="C34" s="16">
+        <v>16</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B35" s="8">
+        <v>7</v>
+      </c>
+      <c r="C35" s="8">
+        <v>13</v>
+      </c>
+      <c r="D35" s="5">
+        <v>79522270284</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="B36" s="8">
+        <v>10</v>
+      </c>
+      <c r="C36" s="8">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>851</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" ht="13.8" spans="1:6">
+      <c r="A38" t="s">
+        <v>852</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>853</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>855</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" ht="13.8" spans="1:6">
+      <c r="A41" t="s">
+        <v>856</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>857</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" ht="13.8" spans="1:6">
+      <c r="A42" t="s">
+        <v>859</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>862</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F42">
+    <extLst/>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="E41" r:id="rId1" display="vano911@bk.ru"/>
+    <hyperlink ref="E42" r:id="rId2" display="la-solly@mail.ru"/>
+    <hyperlink ref="E38" r:id="rId3" display="meneviella@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Рабочие материалы/Реальные группы/Новички_2020.xlsx
+++ b/Рабочие материалы/Реальные группы/Новички_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9407" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9264" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="2" r:id="rId1"/>
@@ -2622,14 +2622,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="dd\.mmm"/>
+  <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\,mm\,yyyy"/>
-    <numFmt numFmtId="180" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="178" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="180" formatCode="dd\,mm\,yyyy"/>
+    <numFmt numFmtId="181" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2661,16 +2662,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2688,10 +2682,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2720,23 +2730,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2744,6 +2738,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2766,9 +2767,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2781,23 +2790,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2824,7 +2825,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2836,7 +2873,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2848,19 +2945,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2872,19 +2987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2896,115 +2999,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3049,6 +3050,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3059,15 +3090,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3098,21 +3120,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3126,77 +3133,71 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3205,98 +3206,98 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3325,7 +3326,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3345,7 +3347,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -6762,7 +6764,7 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="28">
-    <pivotField compact="0" numFmtId="180" showAll="0">
+    <pivotField compact="0" numFmtId="181" showAll="0">
       <items count="71">
         <item x="0"/>
         <item x="1"/>
@@ -7455,5280 +7457,5280 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:28">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="X1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AB1" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:7">
-      <c r="A2" s="31">
+      <c r="A2" s="32">
         <v>44069.8451646065</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:28">
-      <c r="A3" s="31">
+      <c r="A3" s="32">
         <v>44069.8469000579</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="32">
+      <c r="T3" s="33">
         <v>12</v>
       </c>
-      <c r="U3" s="38">
+      <c r="U3" s="39">
         <v>39606</v>
       </c>
-      <c r="V3" s="32" t="s">
+      <c r="V3" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="32" t="s">
+      <c r="W3" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="Y3" s="32">
+      <c r="Y3" s="33">
         <v>6</v>
       </c>
-      <c r="Z3" s="32" t="s">
+      <c r="Z3" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" s="32" t="s">
+      <c r="AA3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB3" s="32" t="s">
+      <c r="AB3" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:7">
-      <c r="A4" s="31">
+      <c r="A4" s="32">
         <v>44069.8502457407</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:28">
-      <c r="A5" s="31">
+      <c r="A5" s="32">
         <v>44069.8509578819</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Q5" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="32">
+      <c r="T5" s="33">
         <v>11</v>
       </c>
-      <c r="U5" s="38">
+      <c r="U5" s="39">
         <v>40146</v>
       </c>
-      <c r="V5" s="32" t="s">
+      <c r="V5" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="W5" s="32" t="s">
+      <c r="W5" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="X5" s="32" t="s">
+      <c r="X5" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="Y5" s="32">
+      <c r="Y5" s="33">
         <v>4</v>
       </c>
-      <c r="Z5" s="32" t="s">
+      <c r="Z5" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="AA5" s="32" t="s">
+      <c r="AA5" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" s="32" t="s">
+      <c r="AB5" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" ht="13.2" spans="1:28">
-      <c r="A6" s="31">
+      <c r="A6" s="32">
         <v>44069.8542561921</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="P6" s="32" t="s">
+      <c r="P6" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="Q6" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="S6" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="T6" s="32">
+      <c r="T6" s="33">
         <v>13</v>
       </c>
-      <c r="U6" s="38">
+      <c r="U6" s="39">
         <v>39035</v>
       </c>
-      <c r="V6" s="32" t="s">
+      <c r="V6" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="W6" s="32" t="s">
+      <c r="W6" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="X6" s="32" t="s">
+      <c r="X6" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="Y6" s="32">
+      <c r="Y6" s="33">
         <v>8</v>
       </c>
-      <c r="Z6" s="32" t="s">
+      <c r="Z6" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="AA6" s="32" t="s">
+      <c r="AA6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB6" s="32" t="s">
+      <c r="AB6" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" ht="13.2" spans="1:28">
-      <c r="A7" s="31">
+      <c r="A7" s="32">
         <v>44069.8664397801</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="O7" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="Q7" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="S7" s="32" t="s">
+      <c r="S7" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="T7" s="32">
+      <c r="T7" s="33">
         <v>11</v>
       </c>
-      <c r="U7" s="38">
+      <c r="U7" s="39">
         <v>39975</v>
       </c>
-      <c r="V7" s="32" t="s">
+      <c r="V7" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="W7" s="32" t="s">
+      <c r="W7" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="X7" s="32" t="s">
+      <c r="X7" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="Y7" s="32">
+      <c r="Y7" s="33">
         <v>6</v>
       </c>
-      <c r="Z7" s="32" t="s">
+      <c r="Z7" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="AA7" s="32" t="s">
+      <c r="AA7" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB7" s="32" t="s">
+      <c r="AB7" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" ht="13.2" spans="1:28">
-      <c r="A8" s="31">
+      <c r="A8" s="32">
         <v>44069.8697422801</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="33">
         <v>4002425648</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="N8" s="32" t="s">
+      <c r="N8" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="O8" s="32" t="s">
+      <c r="O8" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="Q8" s="32" t="s">
+      <c r="Q8" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="R8" s="32" t="s">
+      <c r="R8" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="S8" s="32" t="s">
+      <c r="S8" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="T8" s="32">
+      <c r="T8" s="33">
         <v>11</v>
       </c>
-      <c r="U8" s="38">
+      <c r="U8" s="39">
         <v>39819</v>
       </c>
-      <c r="V8" s="32" t="s">
+      <c r="V8" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="W8" s="32" t="s">
+      <c r="W8" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="X8" s="32">
+      <c r="X8" s="33">
         <v>582</v>
       </c>
-      <c r="Y8" s="32">
+      <c r="Y8" s="33">
         <v>6</v>
       </c>
-      <c r="Z8" s="32" t="s">
+      <c r="Z8" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="AA8" s="32" t="s">
+      <c r="AA8" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB8" s="32" t="s">
+      <c r="AB8" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" ht="13.2" spans="1:28">
-      <c r="A9" s="31">
+      <c r="A9" s="32">
         <v>44069.8852382176</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="N9" s="32" t="s">
+      <c r="N9" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="O9" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="P9" s="32" t="s">
+      <c r="P9" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="Q9" s="32" t="s">
+      <c r="Q9" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="R9" s="32" t="s">
+      <c r="R9" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="S9" s="32" t="s">
+      <c r="S9" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="T9" s="32">
+      <c r="T9" s="33">
         <v>11</v>
       </c>
-      <c r="U9" s="38">
+      <c r="U9" s="39">
         <v>40104</v>
       </c>
-      <c r="V9" s="32" t="s">
+      <c r="V9" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="W9" s="32" t="s">
+      <c r="W9" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="X9" s="32">
+      <c r="X9" s="33">
         <v>57</v>
       </c>
-      <c r="Y9" s="32">
+      <c r="Y9" s="33">
         <v>5</v>
       </c>
-      <c r="AA9" s="32" t="s">
+      <c r="AA9" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB9" s="32" t="s">
+      <c r="AB9" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" ht="13.2" spans="1:28">
-      <c r="A10" s="31">
+      <c r="A10" s="32">
         <v>44069.8871546759</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="33">
         <v>4008467573</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="N10" s="32" t="s">
+      <c r="N10" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="O10" s="32" t="s">
+      <c r="O10" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="Q10" s="32" t="s">
+      <c r="Q10" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="R10" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="S10" s="32" t="s">
+      <c r="S10" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="T10" s="32">
+      <c r="T10" s="33">
         <v>12</v>
       </c>
-      <c r="U10" s="38">
+      <c r="U10" s="39">
         <v>39657</v>
       </c>
-      <c r="V10" s="32" t="s">
+      <c r="V10" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="W10" s="32" t="s">
+      <c r="W10" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="X10" s="32" t="s">
+      <c r="X10" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="Y10" s="32">
+      <c r="Y10" s="33">
         <v>6</v>
       </c>
-      <c r="Z10" s="32" t="s">
+      <c r="Z10" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="AA10" s="32" t="s">
+      <c r="AA10" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB10" s="32" t="s">
+      <c r="AB10" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" ht="13.2" spans="1:27">
-      <c r="A11" s="31">
+      <c r="A11" s="32">
         <v>44069.8945654051</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="M11" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="N11" s="32" t="s">
+      <c r="N11" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="O11" s="32" t="s">
+      <c r="O11" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="P11" s="32" t="s">
+      <c r="P11" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="Q11" s="32" t="s">
+      <c r="Q11" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="R11" s="32" t="s">
+      <c r="R11" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="S11" s="32" t="s">
+      <c r="S11" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="T11" s="32">
+      <c r="T11" s="33">
         <v>11</v>
       </c>
-      <c r="U11" s="38">
+      <c r="U11" s="39">
         <v>39892</v>
       </c>
-      <c r="V11" s="32" t="s">
+      <c r="V11" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="W11" s="32" t="s">
+      <c r="W11" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="X11" s="32">
+      <c r="X11" s="33">
         <v>171</v>
       </c>
-      <c r="Y11" s="32">
+      <c r="Y11" s="33">
         <v>5</v>
       </c>
-      <c r="AA11" s="32" t="s">
+      <c r="AA11" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" ht="13.2" spans="1:28">
-      <c r="A12" s="31">
+      <c r="A12" s="32">
         <v>44069.8998637616</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="33">
         <v>4017961086</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="M12" s="32" t="s">
+      <c r="M12" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="N12" s="32" t="s">
+      <c r="N12" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="O12" s="32" t="s">
+      <c r="O12" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="P12" s="32" t="s">
+      <c r="P12" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="Q12" s="32" t="s">
+      <c r="Q12" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="R12" s="32" t="s">
+      <c r="R12" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="S12" s="32" t="s">
+      <c r="S12" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12" s="33">
         <v>11</v>
       </c>
-      <c r="U12" s="38">
+      <c r="U12" s="39">
         <v>40099</v>
       </c>
-      <c r="V12" s="32" t="s">
+      <c r="V12" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="W12" s="32" t="s">
+      <c r="W12" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="X12" s="32">
+      <c r="X12" s="33">
         <v>307</v>
       </c>
-      <c r="Y12" s="32">
+      <c r="Y12" s="33">
         <v>5</v>
       </c>
-      <c r="Z12" s="32" t="s">
+      <c r="Z12" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="AA12" s="32" t="s">
+      <c r="AA12" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB12" s="32" t="s">
+      <c r="AB12" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" ht="13.2" spans="1:28">
-      <c r="A13" s="31">
+      <c r="A13" s="32">
         <v>44069.9173164815</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="33">
         <v>4010179431</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="O13" s="32" t="s">
+      <c r="O13" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="Q13" s="32" t="s">
+      <c r="Q13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="R13" s="32" t="s">
+      <c r="R13" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="S13" s="32" t="s">
+      <c r="S13" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="T13" s="32">
+      <c r="T13" s="33">
         <v>11</v>
       </c>
-      <c r="U13" s="38">
+      <c r="U13" s="39">
         <v>40130</v>
       </c>
-      <c r="V13" s="32" t="s">
+      <c r="V13" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="W13" s="32" t="s">
+      <c r="W13" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="X13" s="32" t="s">
+      <c r="X13" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="Y13" s="32">
+      <c r="Y13" s="33">
         <v>5</v>
       </c>
-      <c r="Z13" s="32" t="s">
+      <c r="Z13" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="AA13" s="32" t="s">
+      <c r="AA13" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB13" s="32" t="s">
+      <c r="AB13" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" ht="13.2" spans="1:28">
-      <c r="A14" s="31">
+      <c r="A14" s="32">
         <v>44069.9242813426</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="M14" s="32" t="s">
+      <c r="M14" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="N14" s="32" t="s">
+      <c r="N14" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="O14" s="32" t="s">
+      <c r="O14" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="P14" s="32" t="s">
+      <c r="P14" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="Q14" s="32" t="s">
+      <c r="Q14" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="R14" s="32" t="s">
+      <c r="R14" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="S14" s="32" t="s">
+      <c r="S14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="T14" s="32">
+      <c r="T14" s="33">
         <v>12</v>
       </c>
-      <c r="U14" s="38">
+      <c r="U14" s="39">
         <v>39331</v>
       </c>
-      <c r="V14" s="32" t="s">
+      <c r="V14" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="W14" s="32" t="s">
+      <c r="W14" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="X14" s="32">
+      <c r="X14" s="33">
         <v>183</v>
       </c>
-      <c r="Y14" s="32">
+      <c r="Y14" s="33">
         <v>7</v>
       </c>
-      <c r="Z14" s="32" t="s">
+      <c r="Z14" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="AA14" s="32" t="s">
+      <c r="AA14" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB14" s="32" t="s">
+      <c r="AB14" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" ht="13.2" spans="1:28">
-      <c r="A15" s="31">
+      <c r="A15" s="32">
         <v>44069.958090544</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="L15" s="32" t="s">
+      <c r="L15" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="N15" s="32" t="s">
+      <c r="N15" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="O15" s="32" t="s">
+      <c r="O15" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="P15" s="32" t="s">
+      <c r="P15" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="Q15" s="32" t="s">
+      <c r="Q15" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="R15" s="32" t="s">
+      <c r="R15" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="S15" s="32" t="s">
+      <c r="S15" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="T15" s="32">
+      <c r="T15" s="33">
         <v>16</v>
       </c>
-      <c r="U15" s="38">
+      <c r="U15" s="39">
         <v>38132</v>
       </c>
-      <c r="V15" s="32" t="s">
+      <c r="V15" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="W15" s="32" t="s">
+      <c r="W15" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="X15" s="32" t="s">
+      <c r="X15" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="Y15" s="32">
+      <c r="Y15" s="33">
         <v>10</v>
       </c>
-      <c r="Z15" s="32" t="s">
+      <c r="Z15" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="AA15" s="32" t="s">
+      <c r="AA15" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB15" s="32" t="s">
+      <c r="AB15" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" ht="13.2" spans="1:28">
-      <c r="A16" s="31">
+      <c r="A16" s="32">
         <v>44070.0036169444</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="33">
         <v>9112313001</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="33">
         <v>9112313001</v>
       </c>
-      <c r="N16" s="32" t="s">
+      <c r="N16" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="O16" s="32" t="s">
+      <c r="O16" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="P16" s="32" t="s">
+      <c r="P16" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="Q16" s="32" t="s">
+      <c r="Q16" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="R16" s="32" t="s">
+      <c r="R16" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="S16" s="32" t="s">
+      <c r="S16" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="T16" s="32">
+      <c r="T16" s="33">
         <v>11</v>
       </c>
-      <c r="U16" s="38">
+      <c r="U16" s="39">
         <v>44070</v>
       </c>
-      <c r="V16" s="32" t="s">
+      <c r="V16" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="W16" s="32" t="s">
+      <c r="W16" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="X16" s="32" t="s">
+      <c r="X16" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="Y16" s="32">
+      <c r="Y16" s="33">
         <v>5</v>
       </c>
-      <c r="Z16" s="32">
+      <c r="Z16" s="33">
         <v>89119274575</v>
       </c>
-      <c r="AA16" s="32" t="s">
+      <c r="AA16" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB16" s="32" t="s">
+      <c r="AB16" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" ht="13.2" spans="1:28">
-      <c r="A17" s="31">
+      <c r="A17" s="32">
         <v>44070.0060016319</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="M17" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="N17" s="32" t="s">
+      <c r="N17" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="O17" s="32" t="s">
+      <c r="O17" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="P17" s="32" t="s">
+      <c r="P17" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="Q17" s="32" t="s">
+      <c r="Q17" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="R17" s="32" t="s">
+      <c r="R17" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="S17" s="32" t="s">
+      <c r="S17" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="T17" s="32">
+      <c r="T17" s="33">
         <v>11</v>
       </c>
-      <c r="U17" s="38">
+      <c r="U17" s="39">
         <v>39742</v>
       </c>
-      <c r="V17" s="32" t="s">
+      <c r="V17" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="W17" s="32" t="s">
+      <c r="W17" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="X17" s="32" t="s">
+      <c r="X17" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="Y17" s="32">
+      <c r="Y17" s="33">
         <v>6</v>
       </c>
-      <c r="Z17" s="32" t="s">
+      <c r="Z17" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="AA17" s="32" t="s">
+      <c r="AA17" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB17" s="32" t="s">
+      <c r="AB17" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" ht="13.2" spans="1:7">
-      <c r="A18" s="31">
+      <c r="A18" s="32">
         <v>44070.0161173958</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" ht="13.2" spans="1:28">
-      <c r="A19" s="31">
+      <c r="A19" s="32">
         <v>44070.0392437384</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="33">
         <v>9111701018</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="33">
         <v>4099364414</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="L19" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="33">
         <v>9111701018</v>
       </c>
-      <c r="N19" s="32" t="s">
+      <c r="N19" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="O19" s="32" t="s">
+      <c r="O19" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="P19" s="32" t="s">
+      <c r="P19" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="Q19" s="32" t="s">
+      <c r="Q19" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="R19" s="32" t="s">
+      <c r="R19" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="S19" s="32" t="s">
+      <c r="S19" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="T19" s="32">
+      <c r="T19" s="33">
         <v>11</v>
       </c>
-      <c r="U19" s="38">
+      <c r="U19" s="39">
         <v>39818</v>
       </c>
-      <c r="V19" s="32" t="s">
+      <c r="V19" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="W19" s="32" t="s">
+      <c r="W19" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="X19" s="32">
+      <c r="X19" s="33">
         <v>371</v>
       </c>
-      <c r="Y19" s="32">
+      <c r="Y19" s="33">
         <v>5</v>
       </c>
-      <c r="Z19" s="32">
+      <c r="Z19" s="33">
         <v>9500370953</v>
       </c>
-      <c r="AA19" s="32" t="s">
+      <c r="AA19" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB19" s="32" t="s">
+      <c r="AB19" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" ht="13.2" spans="1:28">
-      <c r="A20" s="31">
+      <c r="A20" s="32">
         <v>44070.0719096528</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="K20" s="32" t="s">
+      <c r="K20" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="M20" s="32" t="s">
+      <c r="M20" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="N20" s="32" t="s">
+      <c r="N20" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="O20" s="32" t="s">
+      <c r="O20" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="P20" s="32" t="s">
+      <c r="P20" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="Q20" s="32" t="s">
+      <c r="Q20" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="R20" s="32" t="s">
+      <c r="R20" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="S20" s="32" t="s">
+      <c r="S20" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="T20" s="32">
+      <c r="T20" s="33">
         <v>14</v>
       </c>
-      <c r="U20" s="38">
+      <c r="U20" s="39">
         <v>38801</v>
       </c>
-      <c r="V20" s="32" t="s">
+      <c r="V20" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="W20" s="32" t="s">
+      <c r="W20" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="X20" s="32">
+      <c r="X20" s="33">
         <v>230</v>
       </c>
-      <c r="Y20" s="32">
+      <c r="Y20" s="33">
         <v>8</v>
       </c>
-      <c r="Z20" s="32" t="s">
+      <c r="Z20" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="AA20" s="32" t="s">
+      <c r="AA20" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB20" s="32" t="s">
+      <c r="AB20" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" ht="13.2" spans="1:7">
-      <c r="A21" s="31">
+      <c r="A21" s="32">
         <v>44070.3457168171</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" ht="13.2" spans="1:28">
-      <c r="A22" s="31">
+      <c r="A22" s="32">
         <v>44070.3711895023</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="33">
         <v>89062470003</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="K22" s="32">
+      <c r="K22" s="33">
         <v>4003713008</v>
       </c>
-      <c r="L22" s="32" t="s">
+      <c r="L22" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="M22" s="32" t="s">
+      <c r="M22" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="N22" s="32" t="s">
+      <c r="N22" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="O22" s="32" t="s">
+      <c r="O22" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="P22" s="32" t="s">
+      <c r="P22" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="Q22" s="32" t="s">
+      <c r="Q22" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="R22" s="32" t="s">
+      <c r="R22" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="S22" s="32" t="s">
+      <c r="S22" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="T22" s="32">
+      <c r="T22" s="33">
         <v>15</v>
       </c>
-      <c r="U22" s="38">
+      <c r="U22" s="39">
         <v>38478</v>
       </c>
-      <c r="V22" s="32" t="s">
+      <c r="V22" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="W22" s="32" t="s">
+      <c r="W22" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="X22" s="32">
+      <c r="X22" s="33">
         <v>166</v>
       </c>
-      <c r="Y22" s="32">
+      <c r="Y22" s="33">
         <v>9</v>
       </c>
-      <c r="Z22" s="32" t="s">
+      <c r="Z22" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="AA22" s="32" t="s">
+      <c r="AA22" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB22" s="32" t="s">
+      <c r="AB22" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" ht="13.2" spans="1:28">
-      <c r="A23" s="31">
+      <c r="A23" s="32">
         <v>44070.3743015972</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="J23" s="32" t="s">
+      <c r="J23" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="K23" s="32" t="s">
+      <c r="K23" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="L23" s="32" t="s">
+      <c r="L23" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="M23" s="32" t="s">
+      <c r="M23" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="N23" s="32" t="s">
+      <c r="N23" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="O23" s="32" t="s">
+      <c r="O23" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="P23" s="32" t="s">
+      <c r="P23" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="Q23" s="32" t="s">
+      <c r="Q23" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="R23" s="32" t="s">
+      <c r="R23" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="S23" s="32" t="s">
+      <c r="S23" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="T23" s="32">
+      <c r="T23" s="33">
         <v>11</v>
       </c>
-      <c r="U23" s="38">
+      <c r="U23" s="39">
         <v>40065</v>
       </c>
-      <c r="V23" s="32" t="s">
+      <c r="V23" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="W23" s="32" t="s">
+      <c r="W23" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="X23" s="32">
+      <c r="X23" s="33">
         <v>77</v>
       </c>
-      <c r="Y23" s="32">
+      <c r="Y23" s="33">
         <v>5</v>
       </c>
-      <c r="Z23" s="32" t="s">
+      <c r="Z23" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="AA23" s="32" t="s">
+      <c r="AA23" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB23" s="32" t="s">
+      <c r="AB23" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" ht="13.2" spans="1:28">
-      <c r="A24" s="31">
+      <c r="A24" s="32">
         <v>44070.4403953241</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="J24" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="K24" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="L24" s="32" t="s">
+      <c r="L24" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="N24" s="32" t="s">
+      <c r="N24" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="O24" s="32" t="s">
+      <c r="O24" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="P24" s="32" t="s">
+      <c r="P24" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="Q24" s="32" t="s">
+      <c r="Q24" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="R24" s="32" t="s">
+      <c r="R24" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="S24" s="32" t="s">
+      <c r="S24" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="T24" s="32">
+      <c r="T24" s="33">
         <v>16</v>
       </c>
-      <c r="U24" s="38">
+      <c r="U24" s="39">
         <v>37958</v>
       </c>
-      <c r="V24" s="32" t="s">
+      <c r="V24" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="W24" s="32" t="s">
+      <c r="W24" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="X24" s="32" t="s">
+      <c r="X24" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="Y24" s="32">
+      <c r="Y24" s="33">
         <v>10</v>
       </c>
-      <c r="AA24" s="32" t="s">
+      <c r="AA24" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB24" s="32" t="s">
+      <c r="AB24" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" ht="13.2" spans="1:7">
-      <c r="A25" s="31">
+      <c r="A25" s="32">
         <v>44070.4589317708</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" ht="13.95" spans="1:7">
-      <c r="A26" s="31">
+      <c r="A26" s="32">
         <v>44070.4904913773</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:28">
-      <c r="A27" s="33">
+      <c r="A27" s="34">
         <v>44070.535462963</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H27" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="J27" s="34" t="s">
+      <c r="J27" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="K27" s="34" t="s">
+      <c r="K27" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="L27" s="34" t="s">
+      <c r="L27" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="M27" s="34" t="s">
+      <c r="M27" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="N27" s="34" t="s">
+      <c r="N27" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="O27" s="34" t="s">
+      <c r="O27" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="P27" s="34" t="s">
+      <c r="P27" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="Q27" s="34" t="s">
+      <c r="Q27" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="R27" s="34" t="s">
+      <c r="R27" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="S27" s="34" t="s">
+      <c r="S27" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T27" s="35">
+      <c r="T27" s="36">
         <v>12</v>
       </c>
-      <c r="U27" s="39">
+      <c r="U27" s="40">
         <v>39485</v>
       </c>
-      <c r="V27" s="34" t="s">
+      <c r="V27" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="W27" s="34" t="s">
+      <c r="W27" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="X27" s="34" t="s">
+      <c r="X27" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="Y27" s="35">
+      <c r="Y27" s="36">
         <v>6</v>
       </c>
-      <c r="Z27" s="34" t="s">
+      <c r="Z27" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="AA27" s="34" t="s">
+      <c r="AA27" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB27" s="34" t="s">
+      <c r="AB27" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" ht="23" customHeight="1" spans="1:28">
-      <c r="A28" s="33">
+      <c r="A28" s="34">
         <v>44070.540462963</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
     </row>
     <row r="29" customHeight="1" spans="1:28">
-      <c r="A29" s="33">
+      <c r="A29" s="34">
         <v>44070.545150463</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="34" t="s">
+      <c r="H29" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="I29" s="34" t="s">
+      <c r="I29" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="K29" s="34" t="s">
+      <c r="K29" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="L29" s="34" t="s">
+      <c r="L29" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="M29" s="34" t="s">
+      <c r="M29" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="N29" s="34" t="s">
+      <c r="N29" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="O29" s="34" t="s">
+      <c r="O29" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="P29" s="34" t="s">
+      <c r="P29" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="Q29" s="34" t="s">
+      <c r="Q29" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="R29" s="34" t="s">
+      <c r="R29" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="S29" s="34" t="s">
+      <c r="S29" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="T29" s="35">
+      <c r="T29" s="36">
         <v>11</v>
       </c>
-      <c r="U29" s="39">
+      <c r="U29" s="40">
         <v>39787</v>
       </c>
-      <c r="V29" s="34" t="s">
+      <c r="V29" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="W29" s="34" t="s">
+      <c r="W29" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="X29" s="35">
+      <c r="X29" s="36">
         <v>246</v>
       </c>
-      <c r="Y29" s="35">
+      <c r="Y29" s="36">
         <v>6</v>
       </c>
-      <c r="Z29" s="34" t="s">
+      <c r="Z29" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="AA29" s="34" t="s">
+      <c r="AA29" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB29" s="34" t="s">
+      <c r="AB29" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:28">
-      <c r="A30" s="33">
+      <c r="A30" s="34">
         <v>44070.6028356481</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="35">
         <v>79657737525</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="34" t="s">
+      <c r="H30" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="I30" s="34" t="s">
+      <c r="I30" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="J30" s="34" t="s">
+      <c r="J30" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="K30" s="35">
+      <c r="K30" s="36">
         <v>4002075405</v>
       </c>
-      <c r="L30" s="34" t="s">
+      <c r="L30" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="M30" s="34">
+      <c r="M30" s="35">
         <v>79657737525</v>
       </c>
-      <c r="N30" s="34" t="s">
+      <c r="N30" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="O30" s="34" t="s">
+      <c r="O30" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="P30" s="34" t="s">
+      <c r="P30" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="Q30" s="34" t="s">
+      <c r="Q30" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="R30" s="34" t="s">
+      <c r="R30" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="S30" s="34" t="s">
+      <c r="S30" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T30" s="35">
+      <c r="T30" s="36">
         <v>11</v>
       </c>
-      <c r="U30" s="39">
+      <c r="U30" s="40">
         <v>40195</v>
       </c>
-      <c r="V30" s="34" t="s">
+      <c r="V30" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="W30" s="34" t="s">
+      <c r="W30" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="X30" s="35">
+      <c r="X30" s="36">
         <v>64</v>
       </c>
-      <c r="Y30" s="35">
+      <c r="Y30" s="36">
         <v>5</v>
       </c>
-      <c r="Z30" s="34">
+      <c r="Z30" s="35">
         <v>79633411161</v>
       </c>
-      <c r="AA30" s="34" t="s">
+      <c r="AA30" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB30" s="34" t="s">
+      <c r="AB30" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:28">
-      <c r="A31" s="33">
+      <c r="A31" s="34">
         <v>44070.6059606482</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="35" t="s">
         <v>372</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="34" t="s">
+      <c r="H31" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="I31" s="34" t="s">
+      <c r="I31" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="J31" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="K31" s="34" t="s">
+      <c r="K31" s="35" t="s">
         <v>375</v>
       </c>
-      <c r="L31" s="34" t="s">
+      <c r="L31" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="M31" s="34" t="s">
+      <c r="M31" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="N31" s="34" t="s">
+      <c r="N31" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="O31" s="34" t="s">
+      <c r="O31" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="P31" s="34" t="s">
+      <c r="P31" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="Q31" s="34" t="s">
+      <c r="Q31" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="R31" s="34" t="s">
+      <c r="R31" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="S31" s="34" t="s">
+      <c r="S31" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="T31" s="35">
+      <c r="T31" s="36">
         <v>11</v>
       </c>
-      <c r="U31" s="39">
+      <c r="U31" s="40">
         <v>40004</v>
       </c>
-      <c r="V31" s="34" t="s">
+      <c r="V31" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="W31" s="34" t="s">
+      <c r="W31" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="X31" s="34" t="s">
+      <c r="X31" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="Y31" s="35">
+      <c r="Y31" s="36">
         <v>6</v>
       </c>
-      <c r="Z31" s="34" t="s">
+      <c r="Z31" s="35" t="s">
         <v>384</v>
       </c>
-      <c r="AA31" s="34" t="s">
+      <c r="AA31" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB31" s="34" t="s">
+      <c r="AB31" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:28">
-      <c r="A32" s="33">
+      <c r="A32" s="34">
         <v>44070.6118055556</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="35">
         <v>79522270284</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="34" t="s">
+      <c r="H32" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="I32" s="34" t="s">
+      <c r="I32" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="J32" s="34" t="s">
+      <c r="J32" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="36">
         <v>4106888916</v>
       </c>
-      <c r="L32" s="34" t="s">
+      <c r="L32" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="M32" s="34">
+      <c r="M32" s="35">
         <v>79522270284</v>
       </c>
-      <c r="N32" s="34" t="s">
+      <c r="N32" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="O32" s="34" t="s">
+      <c r="O32" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="P32" s="34" t="s">
+      <c r="P32" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="Q32" s="34" t="s">
+      <c r="Q32" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="R32" s="34" t="s">
+      <c r="R32" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="S32" s="34" t="s">
+      <c r="S32" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T32" s="35">
+      <c r="T32" s="36">
         <v>13</v>
       </c>
-      <c r="U32" s="39">
+      <c r="U32" s="40">
         <v>39166</v>
       </c>
-      <c r="V32" s="34" t="s">
+      <c r="V32" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="W32" s="34" t="s">
+      <c r="W32" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="X32" s="35">
+      <c r="X32" s="36">
         <v>441</v>
       </c>
-      <c r="Y32" s="35">
+      <c r="Y32" s="36">
         <v>7</v>
       </c>
-      <c r="Z32" s="34">
+      <c r="Z32" s="35">
         <v>79213354865</v>
       </c>
-      <c r="AA32" s="34" t="s">
+      <c r="AA32" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB32" s="34" t="s">
+      <c r="AB32" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:28">
-      <c r="A33" s="33">
+      <c r="A33" s="34">
         <v>44070.6541435185</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="35" t="s">
         <v>395</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="34" t="s">
+      <c r="H33" s="35" t="s">
         <v>398</v>
       </c>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="J33" s="34" t="s">
+      <c r="J33" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="K33" s="34" t="s">
+      <c r="K33" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="L33" s="34" t="s">
+      <c r="L33" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="M33" s="34" t="s">
+      <c r="M33" s="35" t="s">
         <v>395</v>
       </c>
-      <c r="N33" s="34" t="s">
+      <c r="N33" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="O33" s="34" t="s">
+      <c r="O33" s="35" t="s">
         <v>403</v>
       </c>
-      <c r="P33" s="34" t="s">
+      <c r="P33" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="Q33" s="34" t="s">
+      <c r="Q33" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="R33" s="34" t="s">
+      <c r="R33" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="S33" s="34" t="s">
+      <c r="S33" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="T33" s="35">
+      <c r="T33" s="36">
         <v>11</v>
       </c>
-      <c r="U33" s="39">
+      <c r="U33" s="40">
         <v>40070</v>
       </c>
-      <c r="V33" s="34" t="s">
+      <c r="V33" s="35" t="s">
         <v>403</v>
       </c>
-      <c r="W33" s="34" t="s">
+      <c r="W33" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="X33" s="35">
+      <c r="X33" s="36">
         <v>518</v>
       </c>
-      <c r="Y33" s="35">
+      <c r="Y33" s="36">
         <v>5</v>
       </c>
-      <c r="Z33" s="34" t="s">
+      <c r="Z33" s="35" t="s">
         <v>407</v>
       </c>
-      <c r="AA33" s="34" t="s">
+      <c r="AA33" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB33" s="34" t="s">
+      <c r="AB33" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:28">
-      <c r="A34" s="33">
+      <c r="A34" s="34">
         <v>44070.6909259259</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="34" t="s">
+      <c r="H34" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="J34" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="K34" s="34" t="s">
+      <c r="K34" s="35" t="s">
         <v>414</v>
       </c>
-      <c r="L34" s="34" t="s">
+      <c r="L34" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="M34" s="35">
+      <c r="M34" s="36">
         <v>9633151409</v>
       </c>
-      <c r="N34" s="34" t="s">
+      <c r="N34" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="O34" s="34" t="s">
+      <c r="O34" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="P34" s="34" t="s">
+      <c r="P34" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="Q34" s="34" t="s">
+      <c r="Q34" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="R34" s="34" t="s">
+      <c r="R34" s="35" t="s">
         <v>419</v>
       </c>
-      <c r="S34" s="34" t="s">
+      <c r="S34" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="T34" s="35">
+      <c r="T34" s="36">
         <v>11</v>
       </c>
-      <c r="U34" s="39">
+      <c r="U34" s="40">
         <v>39841</v>
       </c>
-      <c r="V34" s="34" t="s">
+      <c r="V34" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="W34" s="34" t="s">
+      <c r="W34" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="X34" s="35">
+      <c r="X34" s="36">
         <v>322</v>
       </c>
-      <c r="Y34" s="35">
+      <c r="Y34" s="36">
         <v>6</v>
       </c>
-      <c r="Z34" s="35">
+      <c r="Z34" s="36">
         <v>9052767454</v>
       </c>
-      <c r="AA34" s="34" t="s">
+      <c r="AA34" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB34" s="34" t="s">
+      <c r="AB34" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:28">
-      <c r="A35" s="33">
+      <c r="A35" s="34">
         <v>44070.7335069444</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="35">
         <v>79052274602</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="34" t="s">
+      <c r="G35" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="34" t="s">
+      <c r="H35" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="I35" s="34" t="s">
+      <c r="I35" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="J35" s="34" t="s">
+      <c r="J35" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="K35" s="34" t="s">
+      <c r="K35" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="L35" s="34" t="s">
+      <c r="L35" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="M35" s="34">
+      <c r="M35" s="35">
         <v>79052274602</v>
       </c>
-      <c r="N35" s="34" t="s">
+      <c r="N35" s="35" t="s">
         <v>428</v>
       </c>
-      <c r="O35" s="34" t="s">
+      <c r="O35" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="P35" s="34" t="s">
+      <c r="P35" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="Q35" s="34" t="s">
+      <c r="Q35" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="R35" s="34" t="s">
+      <c r="R35" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="S35" s="34" t="s">
+      <c r="S35" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T35" s="35">
+      <c r="T35" s="36">
         <v>12</v>
       </c>
-      <c r="U35" s="39">
+      <c r="U35" s="40">
         <v>39554</v>
       </c>
-      <c r="V35" s="34" t="s">
+      <c r="V35" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="W35" s="34" t="s">
+      <c r="W35" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="X35" s="34" t="s">
+      <c r="X35" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="Y35" s="35">
+      <c r="Y35" s="36">
         <v>6</v>
       </c>
-      <c r="Z35" s="34">
+      <c r="Z35" s="35">
         <v>79052274602</v>
       </c>
-      <c r="AA35" s="34" t="s">
+      <c r="AA35" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB35" s="34" t="s">
+      <c r="AB35" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:28">
-      <c r="A36" s="33">
+      <c r="A36" s="34">
         <v>44070.7561574074</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="35">
         <v>79643641003</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G36" s="34" t="s">
+      <c r="G36" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="H36" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="I36" s="34" t="s">
+      <c r="I36" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="J36" s="34" t="s">
+      <c r="J36" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="K36" s="35">
+      <c r="K36" s="36">
         <v>4017809735</v>
       </c>
-      <c r="L36" s="34" t="s">
+      <c r="L36" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="M36" s="34" t="s">
+      <c r="M36" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="N36" s="34" t="s">
+      <c r="N36" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="O36" s="34" t="s">
+      <c r="O36" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="P36" s="34" t="s">
+      <c r="P36" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="Q36" s="34" t="s">
+      <c r="Q36" s="35" t="s">
         <v>444</v>
       </c>
-      <c r="R36" s="34" t="s">
+      <c r="R36" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="S36" s="34" t="s">
+      <c r="S36" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T36" s="35">
+      <c r="T36" s="36">
         <v>11</v>
       </c>
-      <c r="U36" s="39">
+      <c r="U36" s="40">
         <v>39772</v>
       </c>
-      <c r="V36" s="34" t="s">
+      <c r="V36" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="W36" s="34" t="s">
+      <c r="W36" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="X36" s="35">
+      <c r="X36" s="36">
         <v>119</v>
       </c>
-      <c r="Y36" s="35">
+      <c r="Y36" s="36">
         <v>5</v>
       </c>
-      <c r="Z36" s="34" t="s">
+      <c r="Z36" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="AA36" s="34" t="s">
+      <c r="AA36" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB36" s="34" t="s">
+      <c r="AB36" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:28">
-      <c r="A37" s="33">
+      <c r="A37" s="34">
         <v>44070.884849537</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="36">
         <v>89213954301</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="G37" s="34" t="s">
+      <c r="G37" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="34" t="s">
+      <c r="H37" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="I37" s="34" t="s">
+      <c r="I37" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="J37" s="34" t="s">
+      <c r="J37" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="K37" s="34" t="s">
+      <c r="K37" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="L37" s="34" t="s">
+      <c r="L37" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="M37" s="35">
+      <c r="M37" s="36">
         <v>89219354301</v>
       </c>
-      <c r="N37" s="34" t="s">
+      <c r="N37" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="O37" s="34" t="s">
+      <c r="O37" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="P37" s="34" t="s">
+      <c r="P37" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="Q37" s="34" t="s">
+      <c r="Q37" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="R37" s="34" t="s">
+      <c r="R37" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="S37" s="34" t="s">
+      <c r="S37" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T37" s="35">
+      <c r="T37" s="36">
         <v>12</v>
       </c>
-      <c r="U37" s="39">
+      <c r="U37" s="40">
         <v>39491</v>
       </c>
-      <c r="V37" s="34" t="s">
+      <c r="V37" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="W37" s="34" t="s">
+      <c r="W37" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="X37" s="35">
+      <c r="X37" s="36">
         <v>630</v>
       </c>
-      <c r="Y37" s="35">
+      <c r="Y37" s="36">
         <v>7</v>
       </c>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34" t="s">
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB37" s="34" t="s">
+      <c r="AB37" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:28">
-      <c r="A38" s="33">
+      <c r="A38" s="34">
         <v>44070.8946643519</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G38" s="34" t="s">
+      <c r="G38" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="34" t="s">
+      <c r="H38" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="I38" s="34" t="s">
+      <c r="I38" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="J38" s="34" t="s">
+      <c r="J38" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="K38" s="35">
+      <c r="K38" s="36">
         <v>4008567886</v>
       </c>
-      <c r="L38" s="34" t="s">
+      <c r="L38" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="M38" s="34" t="s">
+      <c r="M38" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="N38" s="34" t="s">
+      <c r="N38" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="O38" s="34" t="s">
+      <c r="O38" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="P38" s="34" t="s">
+      <c r="P38" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="Q38" s="34" t="s">
+      <c r="Q38" s="35" t="s">
         <v>465</v>
       </c>
-      <c r="R38" s="34" t="s">
+      <c r="R38" s="35" t="s">
         <v>466</v>
       </c>
-      <c r="S38" s="34" t="s">
+      <c r="S38" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T38" s="35">
+      <c r="T38" s="36">
         <v>11</v>
       </c>
-      <c r="U38" s="39">
+      <c r="U38" s="40">
         <v>39787</v>
       </c>
-      <c r="V38" s="34" t="s">
+      <c r="V38" s="35" t="s">
         <v>467</v>
       </c>
-      <c r="W38" s="34" t="s">
+      <c r="W38" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="X38" s="35">
+      <c r="X38" s="36">
         <v>518</v>
       </c>
-      <c r="Y38" s="35">
+      <c r="Y38" s="36">
         <v>5</v>
       </c>
-      <c r="Z38" s="34" t="s">
+      <c r="Z38" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="AA38" s="34" t="s">
+      <c r="AA38" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB38" s="34" t="s">
+      <c r="AB38" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:28">
-      <c r="A39" s="33">
+      <c r="A39" s="34">
         <v>44070.9156481481</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="35" t="s">
         <v>469</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="35" t="s">
         <v>470</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="35" t="s">
         <v>471</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="F39" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="34" t="s">
+      <c r="G39" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
     </row>
     <row r="40" customHeight="1" spans="1:28">
-      <c r="A40" s="33">
+      <c r="A40" s="34">
         <v>44070.9626041667</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C40" s="36">
         <v>9006266514</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="35" t="s">
         <v>473</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G40" s="34" t="s">
+      <c r="G40" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="34" t="s">
+      <c r="H40" s="35" t="s">
         <v>473</v>
       </c>
-      <c r="I40" s="34" t="s">
+      <c r="I40" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="J40" s="34" t="s">
+      <c r="J40" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="K40" s="35">
+      <c r="K40" s="36">
         <v>4008791881</v>
       </c>
-      <c r="L40" s="34" t="s">
+      <c r="L40" s="35" t="s">
         <v>474</v>
       </c>
-      <c r="M40" s="35">
+      <c r="M40" s="36">
         <v>9213891069</v>
       </c>
-      <c r="N40" s="34" t="s">
+      <c r="N40" s="35" t="s">
         <v>475</v>
       </c>
-      <c r="O40" s="34" t="s">
+      <c r="O40" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="P40" s="34" t="s">
+      <c r="P40" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="Q40" s="34" t="s">
+      <c r="Q40" s="35" t="s">
         <v>478</v>
       </c>
-      <c r="R40" s="34" t="s">
+      <c r="R40" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="S40" s="34" t="s">
+      <c r="S40" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T40" s="35">
+      <c r="T40" s="36">
         <v>15</v>
       </c>
-      <c r="U40" s="39">
+      <c r="U40" s="40">
         <v>38267</v>
       </c>
-      <c r="V40" s="35">
+      <c r="V40" s="36">
         <v>4018158854</v>
       </c>
-      <c r="W40" s="34" t="s">
+      <c r="W40" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="X40" s="34" t="s">
+      <c r="X40" s="35" t="s">
         <v>479</v>
       </c>
-      <c r="Y40" s="35">
+      <c r="Y40" s="36">
         <v>10</v>
       </c>
-      <c r="Z40" s="35">
+      <c r="Z40" s="36">
         <v>9006266514</v>
       </c>
-      <c r="AA40" s="34" t="s">
+      <c r="AA40" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB40" s="34" t="s">
+      <c r="AB40" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:28">
-      <c r="A41" s="33">
+      <c r="A41" s="34">
         <v>44071.1134375</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="35" t="s">
         <v>480</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="35" t="s">
         <v>482</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="35" t="s">
         <v>483</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="F41" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="G41" s="34" t="s">
+      <c r="G41" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="34" t="s">
+      <c r="H41" s="35" t="s">
         <v>484</v>
       </c>
-      <c r="I41" s="34" t="s">
+      <c r="I41" s="35" t="s">
         <v>485</v>
       </c>
-      <c r="J41" s="34" t="s">
+      <c r="J41" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="K41" s="34" t="s">
+      <c r="K41" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="L41" s="34" t="s">
+      <c r="L41" s="35" t="s">
         <v>487</v>
       </c>
-      <c r="M41" s="34" t="s">
+      <c r="M41" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="N41" s="34" t="s">
+      <c r="N41" s="35" t="s">
         <v>488</v>
       </c>
-      <c r="O41" s="34" t="s">
+      <c r="O41" s="35" t="s">
         <v>489</v>
       </c>
-      <c r="P41" s="34" t="s">
+      <c r="P41" s="35" t="s">
         <v>484</v>
       </c>
-      <c r="Q41" s="34" t="s">
+      <c r="Q41" s="35" t="s">
         <v>490</v>
       </c>
-      <c r="R41" s="34" t="s">
+      <c r="R41" s="35" t="s">
         <v>491</v>
       </c>
-      <c r="S41" s="34" t="s">
+      <c r="S41" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="T41" s="35">
+      <c r="T41" s="36">
         <v>11</v>
       </c>
-      <c r="U41" s="39">
+      <c r="U41" s="40">
         <v>39844</v>
       </c>
-      <c r="V41" s="34" t="s">
+      <c r="V41" s="35" t="s">
         <v>492</v>
       </c>
-      <c r="W41" s="34" t="s">
+      <c r="W41" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="X41" s="34" t="s">
+      <c r="X41" s="35" t="s">
         <v>493</v>
       </c>
-      <c r="Y41" s="35">
+      <c r="Y41" s="36">
         <v>5</v>
       </c>
-      <c r="Z41" s="34" t="s">
+      <c r="Z41" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="AA41" s="34" t="s">
+      <c r="AA41" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB41" s="34" t="s">
+      <c r="AB41" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:28">
-      <c r="A42" s="33">
+      <c r="A42" s="34">
         <v>44071.3973148148</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="35" t="s">
         <v>495</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="35" t="s">
         <v>496</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="35" t="s">
         <v>497</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="35" t="s">
         <v>498</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F42" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G42" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="34" t="s">
+      <c r="H42" s="35" t="s">
         <v>499</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="J42" s="34" t="s">
+      <c r="J42" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="K42" s="35">
+      <c r="K42" s="36">
         <v>4002906770</v>
       </c>
-      <c r="L42" s="34" t="s">
+      <c r="L42" s="35" t="s">
         <v>500</v>
       </c>
-      <c r="M42" s="34" t="s">
+      <c r="M42" s="35" t="s">
         <v>496</v>
       </c>
-      <c r="N42" s="34" t="s">
+      <c r="N42" s="35" t="s">
         <v>501</v>
       </c>
-      <c r="O42" s="34" t="s">
+      <c r="O42" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="P42" s="34" t="s">
+      <c r="P42" s="35" t="s">
         <v>503</v>
       </c>
-      <c r="Q42" s="34" t="s">
+      <c r="Q42" s="35" t="s">
         <v>504</v>
       </c>
-      <c r="R42" s="34" t="s">
+      <c r="R42" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="S42" s="34" t="s">
+      <c r="S42" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="T42" s="35">
+      <c r="T42" s="36">
         <v>12</v>
       </c>
-      <c r="U42" s="39">
+      <c r="U42" s="40">
         <v>39733</v>
       </c>
-      <c r="V42" s="34" t="s">
+      <c r="V42" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="W42" s="34" t="s">
+      <c r="W42" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="X42" s="34" t="s">
+      <c r="X42" s="35" t="s">
         <v>505</v>
       </c>
-      <c r="Y42" s="35">
+      <c r="Y42" s="36">
         <v>5</v>
       </c>
-      <c r="Z42" s="34" t="s">
+      <c r="Z42" s="35" t="s">
         <v>506</v>
       </c>
-      <c r="AA42" s="34" t="s">
+      <c r="AA42" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB42" s="34" t="s">
+      <c r="AB42" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" s="29" customFormat="1" ht="18" customHeight="1" spans="1:28">
-      <c r="A43" s="36">
+    <row r="43" s="30" customFormat="1" ht="18" customHeight="1" spans="1:28">
+      <c r="A43" s="37">
         <v>44071.5312731481</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="38" t="s">
         <v>507</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="38" t="s">
         <v>508</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="38" t="s">
         <v>460</v>
       </c>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="38" t="s">
         <v>509</v>
       </c>
-      <c r="F43" s="37" t="s">
+      <c r="F43" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="G43" s="37" t="s">
+      <c r="G43" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="37" t="s">
+      <c r="H43" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="I43" s="37" t="s">
+      <c r="I43" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="J43" s="37" t="s">
+      <c r="J43" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="K43" s="37" t="s">
+      <c r="K43" s="38" t="s">
         <v>511</v>
       </c>
-      <c r="L43" s="37" t="s">
+      <c r="L43" s="38" t="s">
         <v>512</v>
       </c>
-      <c r="M43" s="37" t="s">
+      <c r="M43" s="38" t="s">
         <v>508</v>
       </c>
-      <c r="N43" s="37" t="s">
+      <c r="N43" s="38" t="s">
         <v>513</v>
       </c>
-      <c r="O43" s="37" t="s">
+      <c r="O43" s="38" t="s">
         <v>514</v>
       </c>
-      <c r="P43" s="37" t="s">
+      <c r="P43" s="38" t="s">
         <v>509</v>
       </c>
-      <c r="Q43" s="37" t="s">
+      <c r="Q43" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="R43" s="37" t="s">
+      <c r="R43" s="38" t="s">
         <v>515</v>
       </c>
-      <c r="S43" s="37" t="s">
+      <c r="S43" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="T43" s="40">
+      <c r="T43" s="41">
         <v>11</v>
       </c>
-      <c r="U43" s="41">
+      <c r="U43" s="42">
         <v>39737</v>
       </c>
-      <c r="V43" s="37" t="s">
+      <c r="V43" s="38" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="37" t="s">
+      <c r="W43" s="38" t="s">
         <v>516</v>
       </c>
-      <c r="X43" s="37" t="s">
+      <c r="X43" s="38" t="s">
         <v>517</v>
       </c>
-      <c r="Y43" s="40">
+      <c r="Y43" s="41">
         <v>6</v>
       </c>
-      <c r="Z43" s="37" t="s">
+      <c r="Z43" s="38" t="s">
         <v>518</v>
       </c>
-      <c r="AA43" s="37" t="s">
+      <c r="AA43" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AB43" s="37" t="s">
+      <c r="AB43" s="38" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:28">
-      <c r="A44" s="33">
+      <c r="A44" s="34">
         <v>44071.5888888889</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="35" t="s">
         <v>519</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="35" t="s">
         <v>520</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="35" t="s">
         <v>521</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="35" t="s">
         <v>522</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F44" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G44" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="34" t="s">
+      <c r="H44" s="35" t="s">
         <v>522</v>
       </c>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="J44" s="34" t="s">
+      <c r="J44" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="K44" s="34" t="s">
+      <c r="K44" s="35" t="s">
         <v>523</v>
       </c>
-      <c r="L44" s="34" t="s">
+      <c r="L44" s="35" t="s">
         <v>524</v>
       </c>
-      <c r="M44" s="34" t="s">
+      <c r="M44" s="35" t="s">
         <v>520</v>
       </c>
-      <c r="N44" s="34" t="s">
+      <c r="N44" s="35" t="s">
         <v>525</v>
       </c>
-      <c r="O44" s="34" t="s">
+      <c r="O44" s="35" t="s">
         <v>526</v>
       </c>
-      <c r="P44" s="34" t="s">
+      <c r="P44" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="Q44" s="34" t="s">
+      <c r="Q44" s="35" t="s">
         <v>528</v>
       </c>
-      <c r="R44" s="34" t="s">
+      <c r="R44" s="35" t="s">
         <v>466</v>
       </c>
-      <c r="S44" s="34" t="s">
+      <c r="S44" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T44" s="35">
+      <c r="T44" s="36">
         <v>12</v>
       </c>
-      <c r="U44" s="39">
+      <c r="U44" s="40">
         <v>39413</v>
       </c>
-      <c r="V44" s="34" t="s">
+      <c r="V44" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="W44" s="34" t="s">
+      <c r="W44" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="X44" s="34" t="s">
+      <c r="X44" s="35" t="s">
         <v>529</v>
       </c>
-      <c r="Y44" s="35">
+      <c r="Y44" s="36">
         <v>6</v>
       </c>
-      <c r="Z44" s="34" t="s">
+      <c r="Z44" s="35" t="s">
         <v>530</v>
       </c>
-      <c r="AA44" s="34" t="s">
+      <c r="AA44" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB44" s="34" t="s">
+      <c r="AB44" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:28">
-      <c r="A45" s="33">
+      <c r="A45" s="34">
         <v>44071.6118055556</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="35">
         <v>79119820337</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="35" t="s">
         <v>532</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G45" s="34" t="s">
+      <c r="G45" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H45" s="34" t="s">
+      <c r="H45" s="35" t="s">
         <v>533</v>
       </c>
-      <c r="I45" s="34" t="s">
+      <c r="I45" s="35" t="s">
         <v>534</v>
       </c>
-      <c r="J45" s="34" t="s">
+      <c r="J45" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="K45" s="34" t="s">
+      <c r="K45" s="35" t="s">
         <v>536</v>
       </c>
-      <c r="L45" s="34" t="s">
+      <c r="L45" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="M45" s="34" t="s">
+      <c r="M45" s="35" t="s">
         <v>538</v>
       </c>
-      <c r="N45" s="34" t="s">
+      <c r="N45" s="35" t="s">
         <v>539</v>
       </c>
-      <c r="O45" s="34" t="s">
+      <c r="O45" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="P45" s="34" t="s">
+      <c r="P45" s="35" t="s">
         <v>541</v>
       </c>
-      <c r="Q45" s="34" t="s">
+      <c r="Q45" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="R45" s="34" t="s">
+      <c r="R45" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="S45" s="34" t="s">
+      <c r="S45" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T45" s="35">
+      <c r="T45" s="36">
         <v>14</v>
       </c>
-      <c r="U45" s="39">
+      <c r="U45" s="40">
         <v>38855</v>
       </c>
-      <c r="V45" s="34" t="s">
+      <c r="V45" s="35" t="s">
         <v>542</v>
       </c>
-      <c r="W45" s="34" t="s">
+      <c r="W45" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="X45" s="35">
+      <c r="X45" s="36">
         <v>110</v>
       </c>
-      <c r="Y45" s="35">
+      <c r="Y45" s="36">
         <v>8</v>
       </c>
-      <c r="Z45" s="34" t="s">
+      <c r="Z45" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="AA45" s="34" t="s">
+      <c r="AA45" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB45" s="34" t="s">
+      <c r="AB45" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:28">
-      <c r="A46" s="33">
+      <c r="A46" s="34">
         <v>44071.6180208333</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="35" t="s">
         <v>544</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="35" t="s">
         <v>545</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="35" t="s">
         <v>546</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="35" t="s">
         <v>547</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="F46" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="G46" s="34" t="s">
+      <c r="G46" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H46" s="34" t="s">
+      <c r="H46" s="35" t="s">
         <v>547</v>
       </c>
-      <c r="I46" s="34" t="s">
+      <c r="I46" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="J46" s="34" t="s">
+      <c r="J46" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="K46" s="35">
+      <c r="K46" s="36">
         <v>4008527993</v>
       </c>
-      <c r="L46" s="34" t="s">
+      <c r="L46" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="M46" s="34">
+      <c r="M46" s="35">
         <v>79213626881</v>
       </c>
-      <c r="N46" s="34" t="s">
+      <c r="N46" s="35" t="s">
         <v>549</v>
       </c>
-      <c r="O46" s="34" t="s">
+      <c r="O46" s="35" t="s">
         <v>550</v>
       </c>
-      <c r="P46" s="34" t="s">
+      <c r="P46" s="35" t="s">
         <v>551</v>
       </c>
-      <c r="Q46" s="34" t="s">
+      <c r="Q46" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="R46" s="34" t="s">
+      <c r="R46" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="S46" s="34" t="s">
+      <c r="S46" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T46" s="35">
+      <c r="T46" s="36">
         <v>11</v>
       </c>
-      <c r="U46" s="39">
+      <c r="U46" s="40">
         <v>39766</v>
       </c>
-      <c r="V46" s="34" t="s">
+      <c r="V46" s="35" t="s">
         <v>550</v>
       </c>
-      <c r="W46" s="34" t="s">
+      <c r="W46" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="X46" s="34" t="s">
+      <c r="X46" s="35" t="s">
         <v>553</v>
       </c>
-      <c r="Y46" s="35">
+      <c r="Y46" s="36">
         <v>6</v>
       </c>
-      <c r="Z46" s="34" t="s">
+      <c r="Z46" s="35" t="s">
         <v>554</v>
       </c>
-      <c r="AA46" s="34" t="s">
+      <c r="AA46" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB46" s="34" t="s">
+      <c r="AB46" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:28">
-      <c r="A47" s="33">
+      <c r="A47" s="34">
         <v>44071.7654166667</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="35" t="s">
         <v>555</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="35">
         <v>79219980607</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="35" t="s">
         <v>556</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="F47" s="34" t="s">
+      <c r="F47" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="G47" s="34" t="s">
+      <c r="G47" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H47" s="34" t="s">
+      <c r="H47" s="35" t="s">
         <v>558</v>
       </c>
-      <c r="I47" s="34" t="s">
+      <c r="I47" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="J47" s="34" t="s">
+      <c r="J47" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="K47" s="34" t="s">
+      <c r="K47" s="35" t="s">
         <v>559</v>
       </c>
-      <c r="L47" s="34" t="s">
+      <c r="L47" s="35" t="s">
         <v>560</v>
       </c>
-      <c r="M47" s="34" t="s">
+      <c r="M47" s="35" t="s">
         <v>561</v>
       </c>
-      <c r="N47" s="34" t="s">
+      <c r="N47" s="35" t="s">
         <v>562</v>
       </c>
-      <c r="O47" s="34" t="s">
+      <c r="O47" s="35" t="s">
         <v>563</v>
       </c>
-      <c r="P47" s="34" t="s">
+      <c r="P47" s="35" t="s">
         <v>558</v>
       </c>
-      <c r="Q47" s="34" t="s">
+      <c r="Q47" s="35" t="s">
         <v>564</v>
       </c>
-      <c r="R47" s="34" t="s">
+      <c r="R47" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="S47" s="34" t="s">
+      <c r="S47" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="T47" s="35">
+      <c r="T47" s="36">
         <v>12</v>
       </c>
-      <c r="U47" s="39">
+      <c r="U47" s="40">
         <v>39578</v>
       </c>
-      <c r="V47" s="34" t="s">
+      <c r="V47" s="35" t="s">
         <v>565</v>
       </c>
-      <c r="W47" s="34" t="s">
+      <c r="W47" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="X47" s="35">
+      <c r="X47" s="36">
         <v>507</v>
       </c>
-      <c r="Y47" s="35">
+      <c r="Y47" s="36">
         <v>6</v>
       </c>
-      <c r="Z47" s="34" t="s">
+      <c r="Z47" s="35" t="s">
         <v>566</v>
       </c>
-      <c r="AA47" s="34" t="s">
+      <c r="AA47" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB47" s="34" t="s">
+      <c r="AB47" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:28">
-      <c r="A48" s="33">
+      <c r="A48" s="34">
         <v>44071.7855671296</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="35" t="s">
         <v>568</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="35" t="s">
         <v>569</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="35" t="s">
         <v>570</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F48" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G48" s="34" t="s">
+      <c r="G48" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H48" s="34" t="s">
+      <c r="H48" s="35" t="s">
         <v>571</v>
       </c>
-      <c r="I48" s="34" t="s">
+      <c r="I48" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="J48" s="34" t="s">
+      <c r="J48" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K48" s="34" t="s">
+      <c r="K48" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="L48" s="34" t="s">
+      <c r="L48" s="35" t="s">
         <v>573</v>
       </c>
-      <c r="M48" s="34" t="s">
+      <c r="M48" s="35" t="s">
         <v>568</v>
       </c>
-      <c r="N48" s="34" t="s">
+      <c r="N48" s="35" t="s">
         <v>574</v>
       </c>
-      <c r="O48" s="34" t="s">
+      <c r="O48" s="35" t="s">
         <v>575</v>
       </c>
-      <c r="P48" s="34" t="s">
+      <c r="P48" s="35" t="s">
         <v>571</v>
       </c>
-      <c r="Q48" s="34" t="s">
+      <c r="Q48" s="35" t="s">
         <v>576</v>
       </c>
-      <c r="R48" s="34" t="s">
+      <c r="R48" s="35" t="s">
         <v>577</v>
       </c>
-      <c r="S48" s="34" t="s">
+      <c r="S48" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="T48" s="35">
+      <c r="T48" s="36">
         <v>11</v>
       </c>
-      <c r="U48" s="39">
+      <c r="U48" s="40">
         <v>39745</v>
       </c>
-      <c r="V48" s="34" t="s">
+      <c r="V48" s="35" t="s">
         <v>578</v>
       </c>
-      <c r="W48" s="34" t="s">
+      <c r="W48" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="X48" s="34" t="s">
+      <c r="X48" s="35" t="s">
         <v>579</v>
       </c>
-      <c r="Y48" s="35">
+      <c r="Y48" s="36">
         <v>6</v>
       </c>
-      <c r="Z48" s="34" t="s">
+      <c r="Z48" s="35" t="s">
         <v>580</v>
       </c>
-      <c r="AA48" s="34" t="s">
+      <c r="AA48" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB48" s="34" t="s">
+      <c r="AB48" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:28">
-      <c r="A49" s="33">
+      <c r="A49" s="34">
         <v>44073.545</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="35" t="s">
         <v>581</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="35" t="s">
         <v>582</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="35" t="s">
         <v>556</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="35" t="s">
         <v>583</v>
       </c>
-      <c r="F49" s="34" t="s">
+      <c r="F49" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="G49" s="34" t="s">
+      <c r="G49" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H49" s="34" t="s">
+      <c r="H49" s="35" t="s">
         <v>584</v>
       </c>
-      <c r="I49" s="34" t="s">
+      <c r="I49" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="J49" s="34" t="s">
+      <c r="J49" s="35" t="s">
         <v>585</v>
       </c>
-      <c r="K49" s="35">
+      <c r="K49" s="36">
         <v>4017817239</v>
       </c>
-      <c r="L49" s="34" t="s">
+      <c r="L49" s="35" t="s">
         <v>586</v>
       </c>
-      <c r="M49" s="34" t="s">
+      <c r="M49" s="35" t="s">
         <v>582</v>
       </c>
-      <c r="N49" s="34" t="s">
+      <c r="N49" s="35" t="s">
         <v>587</v>
       </c>
-      <c r="O49" s="34" t="s">
+      <c r="O49" s="35" t="s">
         <v>588</v>
       </c>
-      <c r="P49" s="34" t="s">
+      <c r="P49" s="35" t="s">
         <v>584</v>
       </c>
-      <c r="Q49" s="34" t="s">
+      <c r="Q49" s="35" t="s">
         <v>564</v>
       </c>
-      <c r="R49" s="34" t="s">
+      <c r="R49" s="35" t="s">
         <v>589</v>
       </c>
-      <c r="S49" s="34" t="s">
+      <c r="S49" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="T49" s="35">
+      <c r="T49" s="36">
         <v>11</v>
       </c>
-      <c r="U49" s="39">
+      <c r="U49" s="40">
         <v>39850</v>
       </c>
-      <c r="V49" s="34" t="s">
+      <c r="V49" s="35" t="s">
         <v>590</v>
       </c>
-      <c r="W49" s="34" t="s">
+      <c r="W49" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="X49" s="34" t="s">
+      <c r="X49" s="35" t="s">
         <v>591</v>
       </c>
-      <c r="Y49" s="35">
+      <c r="Y49" s="36">
         <v>5</v>
       </c>
-      <c r="Z49" s="34" t="s">
+      <c r="Z49" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="AA49" s="34" t="s">
+      <c r="AA49" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB49" s="34" t="s">
+      <c r="AB49" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:28">
-      <c r="A50" s="33">
+      <c r="A50" s="34">
         <v>44073.6480555556</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="35" t="s">
         <v>593</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="35" t="s">
         <v>594</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="35" t="s">
         <v>595</v>
       </c>
-      <c r="F50" s="34" t="s">
+      <c r="F50" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="G50" s="34" t="s">
+      <c r="G50" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H50" s="34" t="s">
+      <c r="H50" s="35" t="s">
         <v>596</v>
       </c>
-      <c r="I50" s="34" t="s">
+      <c r="I50" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="J50" s="34" t="s">
+      <c r="J50" s="35" t="s">
         <v>597</v>
       </c>
-      <c r="K50" s="34" t="s">
+      <c r="K50" s="35" t="s">
         <v>598</v>
       </c>
-      <c r="L50" s="34" t="s">
+      <c r="L50" s="35" t="s">
         <v>599</v>
       </c>
-      <c r="M50" s="34" t="s">
+      <c r="M50" s="35" t="s">
         <v>594</v>
       </c>
-      <c r="N50" s="34" t="s">
+      <c r="N50" s="35" t="s">
         <v>600</v>
       </c>
-      <c r="O50" s="34" t="s">
+      <c r="O50" s="35" t="s">
         <v>601</v>
       </c>
-      <c r="P50" s="34" t="s">
+      <c r="P50" s="35" t="s">
         <v>595</v>
       </c>
-      <c r="Q50" s="34" t="s">
+      <c r="Q50" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="R50" s="34" t="s">
+      <c r="R50" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="S50" s="34" t="s">
+      <c r="S50" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T50" s="35">
+      <c r="T50" s="36">
         <v>13</v>
       </c>
-      <c r="U50" s="39">
+      <c r="U50" s="40">
         <v>39067</v>
       </c>
-      <c r="V50" s="34" t="s">
+      <c r="V50" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="W50" s="34" t="s">
+      <c r="W50" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="X50" s="35">
+      <c r="X50" s="36">
         <v>346</v>
       </c>
-      <c r="Y50" s="35">
+      <c r="Y50" s="36">
         <v>7</v>
       </c>
-      <c r="Z50" s="34" t="s">
+      <c r="Z50" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="AA50" s="34" t="s">
+      <c r="AA50" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB50" s="34" t="s">
+      <c r="AB50" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:28">
-      <c r="A51" s="33">
+      <c r="A51" s="34">
         <v>44073.6993287037</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="E51" s="34" t="s">
+      <c r="E51" s="35" t="s">
         <v>606</v>
       </c>
-      <c r="F51" s="34" t="s">
+      <c r="F51" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G51" s="34" t="s">
+      <c r="G51" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="34" t="s">
+      <c r="H51" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="I51" s="34" t="s">
+      <c r="I51" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="J51" s="34" t="s">
+      <c r="J51" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="K51" s="35">
+      <c r="K51" s="36">
         <v>4019453960</v>
       </c>
-      <c r="L51" s="34" t="s">
+      <c r="L51" s="35" t="s">
         <v>608</v>
       </c>
-      <c r="M51" s="34" t="s">
+      <c r="M51" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="N51" s="34" t="s">
+      <c r="N51" s="35" t="s">
         <v>609</v>
       </c>
-      <c r="O51" s="34" t="s">
+      <c r="O51" s="35" t="s">
         <v>610</v>
       </c>
-      <c r="P51" s="34" t="s">
+      <c r="P51" s="35" t="s">
         <v>611</v>
       </c>
-      <c r="Q51" s="34" t="s">
+      <c r="Q51" s="35" t="s">
         <v>478</v>
       </c>
-      <c r="R51" s="34" t="s">
+      <c r="R51" s="35" t="s">
         <v>612</v>
       </c>
-      <c r="S51" s="34" t="s">
+      <c r="S51" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T51" s="35">
+      <c r="T51" s="36">
         <v>11</v>
       </c>
-      <c r="U51" s="39">
+      <c r="U51" s="40">
         <v>40284</v>
       </c>
-      <c r="V51" s="34" t="s">
+      <c r="V51" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="W51" s="34" t="s">
+      <c r="W51" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="X51" s="34" t="s">
+      <c r="X51" s="35" t="s">
         <v>613</v>
       </c>
-      <c r="Y51" s="35">
+      <c r="Y51" s="36">
         <v>5</v>
       </c>
-      <c r="Z51" s="34" t="s">
+      <c r="Z51" s="35" t="s">
         <v>614</v>
       </c>
-      <c r="AA51" s="34" t="s">
+      <c r="AA51" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB51" s="34" t="s">
+      <c r="AB51" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:28">
-      <c r="A52" s="33">
+      <c r="A52" s="34">
         <v>44073.7089467593</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="35" t="s">
         <v>615</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="35" t="s">
         <v>616</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="35" t="s">
         <v>617</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E52" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="F52" s="34" t="s">
+      <c r="F52" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="G52" s="34" t="s">
+      <c r="G52" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="34" t="s">
+      <c r="H52" s="35" t="s">
         <v>619</v>
       </c>
-      <c r="I52" s="34" t="s">
+      <c r="I52" s="35" t="s">
         <v>620</v>
       </c>
-      <c r="J52" s="34" t="s">
+      <c r="J52" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="K52" s="35">
+      <c r="K52" s="36">
         <v>4017851111</v>
       </c>
-      <c r="L52" s="34" t="s">
+      <c r="L52" s="35" t="s">
         <v>621</v>
       </c>
-      <c r="M52" s="34" t="s">
+      <c r="M52" s="35" t="s">
         <v>616</v>
       </c>
-      <c r="N52" s="34" t="s">
+      <c r="N52" s="35" t="s">
         <v>622</v>
       </c>
-      <c r="O52" s="34" t="s">
+      <c r="O52" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="P52" s="34" t="s">
+      <c r="P52" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="Q52" s="34" t="s">
+      <c r="Q52" s="35" t="s">
         <v>625</v>
       </c>
-      <c r="R52" s="34" t="s">
+      <c r="R52" s="35" t="s">
         <v>626</v>
       </c>
-      <c r="S52" s="34" t="s">
+      <c r="S52" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="T52" s="35">
+      <c r="T52" s="36">
         <v>12</v>
       </c>
-      <c r="U52" s="39">
+      <c r="U52" s="40">
         <v>39450</v>
       </c>
-      <c r="V52" s="34" t="s">
+      <c r="V52" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="W52" s="34" t="s">
+      <c r="W52" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="X52" s="34" t="s">
+      <c r="X52" s="35" t="s">
         <v>627</v>
       </c>
-      <c r="Y52" s="35">
+      <c r="Y52" s="36">
         <v>4</v>
       </c>
-      <c r="Z52" s="34" t="s">
+      <c r="Z52" s="35" t="s">
         <v>628</v>
       </c>
-      <c r="AA52" s="34" t="s">
+      <c r="AA52" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB52" s="34" t="s">
+      <c r="AB52" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:28">
-      <c r="A53" s="33">
+      <c r="A53" s="34">
         <v>44073.7469212963</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E53" s="35" t="s">
         <v>606</v>
       </c>
-      <c r="F53" s="34" t="s">
+      <c r="F53" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G53" s="34" t="s">
+      <c r="G53" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H53" s="34" t="s">
+      <c r="H53" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="I53" s="34" t="s">
+      <c r="I53" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="J53" s="34" t="s">
+      <c r="J53" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="K53" s="34" t="s">
+      <c r="K53" s="35" t="s">
         <v>629</v>
       </c>
-      <c r="L53" s="34" t="s">
+      <c r="L53" s="35" t="s">
         <v>630</v>
       </c>
-      <c r="M53" s="34" t="s">
+      <c r="M53" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="N53" s="34" t="s">
+      <c r="N53" s="35" t="s">
         <v>631</v>
       </c>
-      <c r="O53" s="34" t="s">
+      <c r="O53" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="P53" s="34" t="s">
+      <c r="P53" s="35" t="s">
         <v>611</v>
       </c>
-      <c r="Q53" s="34" t="s">
+      <c r="Q53" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="R53" s="34" t="s">
+      <c r="R53" s="35" t="s">
         <v>612</v>
       </c>
-      <c r="S53" s="34" t="s">
+      <c r="S53" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T53" s="35">
+      <c r="T53" s="36">
         <v>12</v>
       </c>
-      <c r="U53" s="39">
+      <c r="U53" s="40">
         <v>39652</v>
       </c>
-      <c r="V53" s="34" t="s">
+      <c r="V53" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="W53" s="34" t="s">
+      <c r="W53" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="X53" s="34" t="s">
+      <c r="X53" s="35" t="s">
         <v>632</v>
       </c>
-      <c r="Y53" s="35">
+      <c r="Y53" s="36">
         <v>6</v>
       </c>
-      <c r="Z53" s="34" t="s">
+      <c r="Z53" s="35" t="s">
         <v>633</v>
       </c>
-      <c r="AA53" s="34" t="s">
+      <c r="AA53" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB53" s="34" t="s">
+      <c r="AB53" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:28">
-      <c r="A54" s="33">
+      <c r="A54" s="34">
         <v>44074.5106828704</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="35" t="s">
         <v>634</v>
       </c>
-      <c r="C54" s="34">
+      <c r="C54" s="35">
         <v>79119235920</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D54" s="35" t="s">
         <v>635</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="E54" s="35" t="s">
         <v>636</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="F54" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H54" s="34" t="s">
+      <c r="H54" s="35" t="s">
         <v>637</v>
       </c>
-      <c r="I54" s="34" t="s">
+      <c r="I54" s="35" t="s">
         <v>638</v>
       </c>
-      <c r="J54" s="34" t="s">
+      <c r="J54" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="K54" s="34" t="s">
+      <c r="K54" s="35" t="s">
         <v>639</v>
       </c>
-      <c r="L54" s="34" t="s">
+      <c r="L54" s="35" t="s">
         <v>640</v>
       </c>
-      <c r="M54" s="34">
+      <c r="M54" s="35">
         <v>79119235920</v>
       </c>
-      <c r="N54" s="34" t="s">
+      <c r="N54" s="35" t="s">
         <v>641</v>
       </c>
-      <c r="O54" s="34" t="s">
+      <c r="O54" s="35" t="s">
         <v>642</v>
       </c>
-      <c r="P54" s="34" t="s">
+      <c r="P54" s="35" t="s">
         <v>636</v>
       </c>
-      <c r="Q54" s="34" t="s">
+      <c r="Q54" s="35" t="s">
         <v>635</v>
       </c>
-      <c r="R54" s="34" t="s">
+      <c r="R54" s="35" t="s">
         <v>643</v>
       </c>
-      <c r="S54" s="34" t="s">
+      <c r="S54" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="T54" s="35">
+      <c r="T54" s="36">
         <v>11</v>
       </c>
-      <c r="U54" s="39">
+      <c r="U54" s="40">
         <v>39958</v>
       </c>
-      <c r="V54" s="34" t="s">
+      <c r="V54" s="35" t="s">
         <v>644</v>
       </c>
-      <c r="W54" s="34" t="s">
+      <c r="W54" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="X54" s="35">
+      <c r="X54" s="36">
         <v>362</v>
       </c>
-      <c r="Y54" s="35">
+      <c r="Y54" s="36">
         <v>5</v>
       </c>
-      <c r="Z54" s="34">
+      <c r="Z54" s="35">
         <v>79119235920</v>
       </c>
-      <c r="AA54" s="34" t="s">
+      <c r="AA54" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB54" s="34" t="s">
+      <c r="AB54" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:28">
-      <c r="A55" s="33">
+      <c r="A55" s="34">
         <v>44074.7030671296</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="35" t="s">
         <v>645</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="35" t="s">
         <v>646</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D55" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="35" t="s">
         <v>647</v>
       </c>
-      <c r="F55" s="34" t="s">
+      <c r="F55" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G55" s="34" t="s">
+      <c r="G55" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="34"/>
-      <c r="V55" s="34"/>
-      <c r="W55" s="34"/>
-      <c r="X55" s="34"/>
-      <c r="Y55" s="34"/>
-      <c r="Z55" s="34"/>
-      <c r="AA55" s="34"/>
-      <c r="AB55" s="34"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
     </row>
     <row r="56" customHeight="1" spans="1:28">
-      <c r="A56" s="33">
+      <c r="A56" s="34">
         <v>44074.8661805556</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="35" t="s">
         <v>648</v>
       </c>
-      <c r="C56" s="34">
+      <c r="C56" s="35">
         <v>79500353591</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D56" s="35" t="s">
         <v>649</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="35" t="s">
         <v>650</v>
       </c>
-      <c r="F56" s="34" t="s">
+      <c r="F56" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G56" s="34" t="s">
+      <c r="G56" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="34"/>
-      <c r="V56" s="34"/>
-      <c r="W56" s="34"/>
-      <c r="X56" s="34"/>
-      <c r="Y56" s="34"/>
-      <c r="Z56" s="34"/>
-      <c r="AA56" s="34"/>
-      <c r="AB56" s="34"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="35"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="35"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="35"/>
+      <c r="Y56" s="35"/>
+      <c r="Z56" s="35"/>
+      <c r="AA56" s="35"/>
+      <c r="AB56" s="35"/>
     </row>
     <row r="57" customHeight="1" spans="1:28">
-      <c r="A57" s="33">
+      <c r="A57" s="34">
         <v>44075.6082986111</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="35" t="s">
         <v>651</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="35" t="s">
         <v>652</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E57" s="34" t="s">
+      <c r="E57" s="35" t="s">
         <v>653</v>
       </c>
-      <c r="F57" s="34" t="s">
+      <c r="F57" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="34" t="s">
+      <c r="G57" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="34" t="s">
+      <c r="H57" s="35" t="s">
         <v>654</v>
       </c>
-      <c r="I57" s="34" t="s">
+      <c r="I57" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="J57" s="34" t="s">
+      <c r="J57" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="K57" s="34" t="s">
+      <c r="K57" s="35" t="s">
         <v>655</v>
       </c>
-      <c r="L57" s="34" t="s">
+      <c r="L57" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="M57" s="34" t="s">
+      <c r="M57" s="35" t="s">
         <v>657</v>
       </c>
-      <c r="N57" s="34" t="s">
+      <c r="N57" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="O57" s="34" t="s">
+      <c r="O57" s="35" t="s">
         <v>659</v>
       </c>
-      <c r="P57" s="34" t="s">
+      <c r="P57" s="35" t="s">
         <v>654</v>
       </c>
-      <c r="Q57" s="34" t="s">
+      <c r="Q57" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="R57" s="34" t="s">
+      <c r="R57" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="S57" s="34" t="s">
+      <c r="S57" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="T57" s="35">
+      <c r="T57" s="36">
         <v>15</v>
       </c>
-      <c r="U57" s="39">
+      <c r="U57" s="40">
         <v>38434</v>
       </c>
-      <c r="V57" s="34" t="s">
+      <c r="V57" s="35" t="s">
         <v>660</v>
       </c>
-      <c r="W57" s="34" t="s">
+      <c r="W57" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="X57" s="34" t="s">
+      <c r="X57" s="35" t="s">
         <v>661</v>
       </c>
-      <c r="Y57" s="35">
+      <c r="Y57" s="36">
         <v>10</v>
       </c>
-      <c r="Z57" s="34" t="s">
+      <c r="Z57" s="35" t="s">
         <v>662</v>
       </c>
-      <c r="AA57" s="34" t="s">
+      <c r="AA57" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB57" s="34" t="s">
+      <c r="AB57" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:28">
-      <c r="A58" s="33">
+      <c r="A58" s="34">
         <v>44075.8003472222</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="35" t="s">
         <v>663</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="35" t="s">
         <v>664</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" s="35" t="s">
         <v>665</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="35" t="s">
         <v>666</v>
       </c>
-      <c r="F58" s="34" t="s">
+      <c r="F58" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G58" s="34" t="s">
+      <c r="G58" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H58" s="34" t="s">
+      <c r="H58" s="35" t="s">
         <v>667</v>
       </c>
-      <c r="I58" s="34" t="s">
+      <c r="I58" s="35" t="s">
         <v>521</v>
       </c>
-      <c r="J58" s="34" t="s">
+      <c r="J58" s="35" t="s">
         <v>668</v>
       </c>
-      <c r="K58" s="34" t="s">
+      <c r="K58" s="35" t="s">
         <v>669</v>
       </c>
-      <c r="L58" s="34" t="s">
+      <c r="L58" s="35" t="s">
         <v>670</v>
       </c>
-      <c r="M58" s="34" t="s">
+      <c r="M58" s="35" t="s">
         <v>664</v>
       </c>
-      <c r="N58" s="34" t="s">
+      <c r="N58" s="35" t="s">
         <v>671</v>
       </c>
-      <c r="O58" s="34" t="s">
+      <c r="O58" s="35" t="s">
         <v>672</v>
       </c>
-      <c r="P58" s="34" t="s">
+      <c r="P58" s="35" t="s">
         <v>666</v>
       </c>
-      <c r="Q58" s="34" t="s">
+      <c r="Q58" s="35" t="s">
         <v>665</v>
       </c>
-      <c r="R58" s="34" t="s">
+      <c r="R58" s="35" t="s">
         <v>673</v>
       </c>
-      <c r="S58" s="34" t="s">
+      <c r="S58" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="T58" s="35">
+      <c r="T58" s="36">
         <v>13</v>
       </c>
-      <c r="U58" s="39">
+      <c r="U58" s="40">
         <v>39237</v>
       </c>
-      <c r="V58" s="34" t="s">
+      <c r="V58" s="35" t="s">
         <v>674</v>
       </c>
-      <c r="W58" s="34" t="s">
+      <c r="W58" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="X58" s="35">
+      <c r="X58" s="36">
         <v>188</v>
       </c>
-      <c r="Y58" s="35">
+      <c r="Y58" s="36">
         <v>7</v>
       </c>
-      <c r="Z58" s="34" t="s">
+      <c r="Z58" s="35" t="s">
         <v>675</v>
       </c>
-      <c r="AA58" s="34" t="s">
+      <c r="AA58" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB58" s="34" t="s">
+      <c r="AB58" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:28">
-      <c r="A59" s="33">
+      <c r="A59" s="34">
         <v>44075.8118055556</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="35" t="s">
         <v>676</v>
       </c>
-      <c r="C59" s="34">
+      <c r="C59" s="35">
         <v>79818904116</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="E59" s="35" t="s">
         <v>677</v>
       </c>
-      <c r="F59" s="34" t="s">
+      <c r="F59" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="34" t="s">
+      <c r="G59" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H59" s="34" t="s">
+      <c r="H59" s="35" t="s">
         <v>678</v>
       </c>
-      <c r="I59" s="34" t="s">
+      <c r="I59" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="J59" s="34" t="s">
+      <c r="J59" s="35" t="s">
         <v>679</v>
       </c>
-      <c r="K59" s="34" t="s">
+      <c r="K59" s="35" t="s">
         <v>680</v>
       </c>
-      <c r="L59" s="34" t="s">
+      <c r="L59" s="35" t="s">
         <v>681</v>
       </c>
-      <c r="M59" s="34">
+      <c r="M59" s="35">
         <v>79819848862</v>
       </c>
-      <c r="N59" s="34" t="s">
+      <c r="N59" s="35" t="s">
         <v>682</v>
       </c>
-      <c r="O59" s="34" t="s">
+      <c r="O59" s="35" t="s">
         <v>683</v>
       </c>
-      <c r="P59" s="34" t="s">
+      <c r="P59" s="35" t="s">
         <v>684</v>
       </c>
-      <c r="Q59" s="34" t="s">
+      <c r="Q59" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="R59" s="34" t="s">
+      <c r="R59" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="S59" s="34" t="s">
+      <c r="S59" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T59" s="35">
+      <c r="T59" s="36">
         <v>16</v>
       </c>
-      <c r="U59" s="39">
+      <c r="U59" s="40">
         <v>38094</v>
       </c>
-      <c r="V59" s="34" t="s">
+      <c r="V59" s="35" t="s">
         <v>685</v>
       </c>
-      <c r="W59" s="34" t="s">
+      <c r="W59" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="X59" s="34" t="s">
+      <c r="X59" s="35" t="s">
         <v>686</v>
       </c>
-      <c r="Y59" s="35">
+      <c r="Y59" s="36">
         <v>10</v>
       </c>
-      <c r="Z59" s="34">
+      <c r="Z59" s="35">
         <v>79818904116</v>
       </c>
-      <c r="AA59" s="34" t="s">
+      <c r="AA59" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB59" s="34" t="s">
+      <c r="AB59" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:28">
-      <c r="A60" s="33">
+      <c r="A60" s="34">
         <v>44075.8333796296</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="35" t="s">
         <v>687</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="35" t="s">
         <v>688</v>
       </c>
-      <c r="D60" s="34" t="s">
+      <c r="D60" s="35" t="s">
         <v>521</v>
       </c>
-      <c r="E60" s="34" t="s">
+      <c r="E60" s="35" t="s">
         <v>689</v>
       </c>
-      <c r="F60" s="34" t="s">
+      <c r="F60" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="34"/>
-      <c r="U60" s="34"/>
-      <c r="V60" s="34"/>
-      <c r="W60" s="34"/>
-      <c r="X60" s="34"/>
-      <c r="Y60" s="34"/>
-      <c r="Z60" s="34"/>
-      <c r="AA60" s="34"/>
-      <c r="AB60" s="34"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="35"/>
     </row>
     <row r="61" customHeight="1" spans="1:28">
-      <c r="A61" s="33">
+      <c r="A61" s="34">
         <v>44075.963900463</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="35" t="s">
         <v>690</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="35" t="s">
         <v>691</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D61" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="E61" s="34" t="s">
+      <c r="E61" s="35" t="s">
         <v>692</v>
       </c>
-      <c r="F61" s="34" t="s">
+      <c r="F61" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G61" s="34" t="s">
+      <c r="G61" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="34"/>
-      <c r="O61" s="34"/>
-      <c r="P61" s="34"/>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="34"/>
-      <c r="S61" s="34"/>
-      <c r="T61" s="34"/>
-      <c r="U61" s="34"/>
-      <c r="V61" s="34"/>
-      <c r="W61" s="34"/>
-      <c r="X61" s="34"/>
-      <c r="Y61" s="34"/>
-      <c r="Z61" s="34"/>
-      <c r="AA61" s="34"/>
-      <c r="AB61" s="34"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
+      <c r="AB61" s="35"/>
     </row>
     <row r="62" customHeight="1" spans="1:28">
-      <c r="A62" s="33">
+      <c r="A62" s="34">
         <v>44076.3638310185</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="35" t="s">
         <v>693</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="35" t="s">
         <v>694</v>
       </c>
-      <c r="D62" s="34" t="s">
+      <c r="D62" s="35" t="s">
         <v>534</v>
       </c>
-      <c r="E62" s="34" t="s">
+      <c r="E62" s="35" t="s">
         <v>695</v>
       </c>
-      <c r="F62" s="34" t="s">
+      <c r="F62" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="G62" s="34" t="s">
+      <c r="G62" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="34"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="34"/>
-      <c r="AB62" s="34"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="35"/>
+      <c r="Y62" s="35"/>
+      <c r="Z62" s="35"/>
+      <c r="AA62" s="35"/>
+      <c r="AB62" s="35"/>
     </row>
     <row r="63" customHeight="1" spans="1:28">
-      <c r="A63" s="33">
+      <c r="A63" s="34">
         <v>44076.4928356481</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="35" t="s">
         <v>696</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="35" t="s">
         <v>697</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D63" s="35" t="s">
         <v>698</v>
       </c>
-      <c r="E63" s="34" t="s">
+      <c r="E63" s="35" t="s">
         <v>699</v>
       </c>
-      <c r="F63" s="34" t="s">
+      <c r="F63" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G63" s="34" t="s">
+      <c r="G63" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34"/>
-      <c r="U63" s="34"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="34"/>
-      <c r="X63" s="34"/>
-      <c r="Y63" s="34"/>
-      <c r="Z63" s="34"/>
-      <c r="AA63" s="34"/>
-      <c r="AB63" s="34"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
+      <c r="Y63" s="35"/>
+      <c r="Z63" s="35"/>
+      <c r="AA63" s="35"/>
+      <c r="AB63" s="35"/>
     </row>
     <row r="64" customHeight="1" spans="1:28">
-      <c r="A64" s="33">
+      <c r="A64" s="34">
         <v>44076.6104976852</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="35" t="s">
         <v>700</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="35" t="s">
         <v>701</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D64" s="35" t="s">
         <v>702</v>
       </c>
-      <c r="E64" s="34" t="s">
+      <c r="E64" s="35" t="s">
         <v>703</v>
       </c>
-      <c r="F64" s="34" t="s">
+      <c r="F64" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G64" s="34" t="s">
+      <c r="G64" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H64" s="34" t="s">
+      <c r="H64" s="35" t="s">
         <v>703</v>
       </c>
-      <c r="I64" s="34" t="s">
+      <c r="I64" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="J64" s="34" t="s">
+      <c r="J64" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="K64" s="34" t="s">
+      <c r="K64" s="35" t="s">
         <v>704</v>
       </c>
-      <c r="L64" s="34" t="s">
+      <c r="L64" s="35" t="s">
         <v>705</v>
       </c>
-      <c r="M64" s="34" t="s">
+      <c r="M64" s="35" t="s">
         <v>706</v>
       </c>
-      <c r="N64" s="34" t="s">
+      <c r="N64" s="35" t="s">
         <v>707</v>
       </c>
-      <c r="O64" s="34" t="s">
+      <c r="O64" s="35" t="s">
         <v>708</v>
       </c>
-      <c r="P64" s="34" t="s">
+      <c r="P64" s="35" t="s">
         <v>703</v>
       </c>
-      <c r="Q64" s="34" t="s">
+      <c r="Q64" s="35" t="s">
         <v>709</v>
       </c>
-      <c r="R64" s="34" t="s">
+      <c r="R64" s="35" t="s">
         <v>710</v>
       </c>
-      <c r="S64" s="34" t="s">
+      <c r="S64" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T64" s="35">
+      <c r="T64" s="36">
         <v>12</v>
       </c>
-      <c r="U64" s="39">
+      <c r="U64" s="40">
         <v>39519</v>
       </c>
-      <c r="V64" s="34" t="s">
+      <c r="V64" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="W64" s="34" t="s">
+      <c r="W64" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="X64" s="34" t="s">
+      <c r="X64" s="35" t="s">
         <v>711</v>
       </c>
-      <c r="Y64" s="35">
+      <c r="Y64" s="36">
         <v>6</v>
       </c>
-      <c r="Z64" s="34" t="s">
+      <c r="Z64" s="35" t="s">
         <v>712</v>
       </c>
-      <c r="AA64" s="34" t="s">
+      <c r="AA64" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB64" s="34" t="s">
+      <c r="AB64" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:28">
-      <c r="A65" s="33">
+      <c r="A65" s="34">
         <v>44076.880462963</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="35" t="s">
         <v>713</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="35" t="s">
         <v>714</v>
       </c>
-      <c r="D65" s="34" t="s">
+      <c r="D65" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="E65" s="34" t="s">
+      <c r="E65" s="35" t="s">
         <v>715</v>
       </c>
-      <c r="F65" s="34" t="s">
+      <c r="F65" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G65" s="34" t="s">
+      <c r="G65" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H65" s="34" t="s">
+      <c r="H65" s="35" t="s">
         <v>715</v>
       </c>
-      <c r="I65" s="34" t="s">
+      <c r="I65" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="J65" s="34" t="s">
+      <c r="J65" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="K65" s="35">
+      <c r="K65" s="36">
         <v>4018258984</v>
       </c>
-      <c r="L65" s="34" t="s">
+      <c r="L65" s="35" t="s">
         <v>716</v>
       </c>
-      <c r="M65" s="34" t="s">
+      <c r="M65" s="35" t="s">
         <v>714</v>
       </c>
-      <c r="N65" s="34" t="s">
+      <c r="N65" s="35" t="s">
         <v>717</v>
       </c>
-      <c r="O65" s="34" t="s">
+      <c r="O65" s="35" t="s">
         <v>718</v>
       </c>
-      <c r="P65" s="34" t="s">
+      <c r="P65" s="35" t="s">
         <v>719</v>
       </c>
-      <c r="Q65" s="34" t="s">
+      <c r="Q65" s="35" t="s">
         <v>720</v>
       </c>
-      <c r="R65" s="34" t="s">
+      <c r="R65" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="S65" s="34" t="s">
+      <c r="S65" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T65" s="35">
+      <c r="T65" s="36">
         <v>13</v>
       </c>
-      <c r="U65" s="39">
+      <c r="U65" s="40">
         <v>39258</v>
       </c>
-      <c r="V65" s="34" t="s">
+      <c r="V65" s="35" t="s">
         <v>718</v>
       </c>
-      <c r="W65" s="34" t="s">
+      <c r="W65" s="35" t="s">
         <v>721</v>
       </c>
-      <c r="X65" s="35">
+      <c r="X65" s="36">
         <v>81</v>
       </c>
-      <c r="Y65" s="35">
+      <c r="Y65" s="36">
         <v>7</v>
       </c>
-      <c r="Z65" s="34" t="s">
+      <c r="Z65" s="35" t="s">
         <v>722</v>
       </c>
-      <c r="AA65" s="34" t="s">
+      <c r="AA65" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB65" s="34" t="s">
+      <c r="AB65" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:28">
-      <c r="A66" s="33">
+      <c r="A66" s="34">
         <v>44077.8316435185</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="35" t="s">
         <v>723</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="35" t="s">
         <v>724</v>
       </c>
-      <c r="D66" s="34" t="s">
+      <c r="D66" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="E66" s="34" t="s">
+      <c r="E66" s="35" t="s">
         <v>725</v>
       </c>
-      <c r="F66" s="34" t="s">
+      <c r="F66" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="G66" s="34" t="s">
+      <c r="G66" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="34"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="34"/>
-      <c r="AA66" s="34"/>
-      <c r="AB66" s="34"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
     </row>
     <row r="67" customHeight="1" spans="1:28">
-      <c r="A67" s="33">
+      <c r="A67" s="34">
         <v>44077.9427777778</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="35" t="s">
         <v>726</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="35" t="s">
         <v>727</v>
       </c>
-      <c r="D67" s="34" t="s">
+      <c r="D67" s="35" t="s">
         <v>521</v>
       </c>
-      <c r="E67" s="34" t="s">
+      <c r="E67" s="35" t="s">
         <v>728</v>
       </c>
-      <c r="F67" s="34" t="s">
+      <c r="F67" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G67" s="34" t="s">
+      <c r="G67" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H67" s="34" t="s">
+      <c r="H67" s="35" t="s">
         <v>729</v>
       </c>
-      <c r="I67" s="34" t="s">
+      <c r="I67" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="J67" s="34" t="s">
+      <c r="J67" s="35" t="s">
         <v>730</v>
       </c>
-      <c r="K67" s="35">
+      <c r="K67" s="36">
         <v>4003754415</v>
       </c>
-      <c r="L67" s="34" t="s">
+      <c r="L67" s="35" t="s">
         <v>731</v>
       </c>
-      <c r="M67" s="34" t="s">
+      <c r="M67" s="35" t="s">
         <v>727</v>
       </c>
-      <c r="N67" s="34" t="s">
+      <c r="N67" s="35" t="s">
         <v>732</v>
       </c>
-      <c r="O67" s="34" t="s">
+      <c r="O67" s="35" t="s">
         <v>733</v>
       </c>
-      <c r="P67" s="34" t="s">
+      <c r="P67" s="35" t="s">
         <v>734</v>
       </c>
-      <c r="Q67" s="34" t="s">
+      <c r="Q67" s="35" t="s">
         <v>528</v>
       </c>
-      <c r="R67" s="34" t="s">
+      <c r="R67" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="S67" s="34" t="s">
+      <c r="S67" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T67" s="35">
+      <c r="T67" s="36">
         <v>15</v>
       </c>
-      <c r="U67" s="39">
+      <c r="U67" s="40">
         <v>38502</v>
       </c>
-      <c r="V67" s="34" t="s">
+      <c r="V67" s="35" t="s">
         <v>735</v>
       </c>
-      <c r="W67" s="34" t="s">
+      <c r="W67" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="X67" s="35">
+      <c r="X67" s="36">
         <v>56</v>
       </c>
-      <c r="Y67" s="35">
+      <c r="Y67" s="36">
         <v>9</v>
       </c>
-      <c r="Z67" s="34" t="s">
+      <c r="Z67" s="35" t="s">
         <v>736</v>
       </c>
-      <c r="AA67" s="34" t="s">
+      <c r="AA67" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB67" s="34" t="s">
+      <c r="AB67" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:28">
-      <c r="A68" s="33">
+      <c r="A68" s="34">
         <v>44078.3124537037</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="35" t="s">
         <v>737</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="35" t="s">
         <v>738</v>
       </c>
-      <c r="D68" s="34" t="s">
+      <c r="D68" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="E68" s="34" t="s">
+      <c r="E68" s="35" t="s">
         <v>739</v>
       </c>
-      <c r="F68" s="34" t="s">
+      <c r="F68" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G68" s="34" t="s">
+      <c r="G68" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H68" s="34" t="s">
+      <c r="H68" s="35" t="s">
         <v>740</v>
       </c>
-      <c r="I68" s="34" t="s">
+      <c r="I68" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="J68" s="34" t="s">
+      <c r="J68" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="K68" s="34" t="s">
+      <c r="K68" s="35" t="s">
         <v>741</v>
       </c>
-      <c r="L68" s="34" t="s">
+      <c r="L68" s="35" t="s">
         <v>742</v>
       </c>
-      <c r="M68" s="34" t="s">
+      <c r="M68" s="35" t="s">
         <v>738</v>
       </c>
-      <c r="N68" s="34" t="s">
+      <c r="N68" s="35" t="s">
         <v>743</v>
       </c>
-      <c r="O68" s="34" t="s">
+      <c r="O68" s="35" t="s">
         <v>744</v>
       </c>
-      <c r="P68" s="34" t="s">
+      <c r="P68" s="35" t="s">
         <v>745</v>
       </c>
-      <c r="Q68" s="34" t="s">
+      <c r="Q68" s="35" t="s">
         <v>720</v>
       </c>
-      <c r="R68" s="34" t="s">
+      <c r="R68" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="S68" s="34" t="s">
+      <c r="S68" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T68" s="35">
+      <c r="T68" s="36">
         <v>11</v>
       </c>
-      <c r="U68" s="39">
+      <c r="U68" s="40">
         <v>43953</v>
       </c>
-      <c r="V68" s="34" t="s">
+      <c r="V68" s="35" t="s">
         <v>744</v>
       </c>
-      <c r="W68" s="34" t="s">
+      <c r="W68" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="X68" s="35">
+      <c r="X68" s="36">
         <v>569</v>
       </c>
-      <c r="Y68" s="35">
+      <c r="Y68" s="36">
         <v>5</v>
       </c>
-      <c r="Z68" s="34" t="s">
+      <c r="Z68" s="35" t="s">
         <v>746</v>
       </c>
-      <c r="AA68" s="34" t="s">
+      <c r="AA68" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB68" s="34" t="s">
+      <c r="AB68" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:28">
-      <c r="A69" s="33">
+      <c r="A69" s="34">
         <v>44078.6987384259</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="35" t="s">
         <v>747</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="35" t="s">
         <v>748</v>
       </c>
-      <c r="D69" s="34" t="s">
+      <c r="D69" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="E69" s="34" t="s">
+      <c r="E69" s="35" t="s">
         <v>749</v>
       </c>
-      <c r="F69" s="34" t="s">
+      <c r="F69" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="G69" s="34" t="s">
+      <c r="G69" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H69" s="34" t="s">
+      <c r="H69" s="35" t="s">
         <v>749</v>
       </c>
-      <c r="I69" s="34" t="s">
+      <c r="I69" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="J69" s="34" t="s">
+      <c r="J69" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="K69" s="34" t="s">
+      <c r="K69" s="35" t="s">
         <v>750</v>
       </c>
-      <c r="L69" s="34" t="s">
+      <c r="L69" s="35" t="s">
         <v>751</v>
       </c>
-      <c r="M69" s="34" t="s">
+      <c r="M69" s="35" t="s">
         <v>748</v>
       </c>
-      <c r="N69" s="34" t="s">
+      <c r="N69" s="35" t="s">
         <v>752</v>
       </c>
-      <c r="O69" s="34" t="s">
+      <c r="O69" s="35" t="s">
         <v>753</v>
       </c>
-      <c r="P69" s="34" t="s">
+      <c r="P69" s="35" t="s">
         <v>754</v>
       </c>
-      <c r="Q69" s="34" t="s">
+      <c r="Q69" s="35" t="s">
         <v>755</v>
       </c>
-      <c r="R69" s="34" t="s">
+      <c r="R69" s="35" t="s">
         <v>756</v>
       </c>
-      <c r="S69" s="34" t="s">
+      <c r="S69" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T69" s="35">
+      <c r="T69" s="36">
         <v>11</v>
       </c>
-      <c r="U69" s="39">
+      <c r="U69" s="40">
         <v>39703</v>
       </c>
-      <c r="V69" s="34" t="s">
+      <c r="V69" s="35" t="s">
         <v>757</v>
       </c>
-      <c r="W69" s="34" t="s">
+      <c r="W69" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="X69" s="35">
+      <c r="X69" s="36">
         <v>200</v>
       </c>
-      <c r="Y69" s="35">
+      <c r="Y69" s="36">
         <v>6</v>
       </c>
-      <c r="Z69" s="34" t="s">
+      <c r="Z69" s="35" t="s">
         <v>758</v>
       </c>
-      <c r="AA69" s="34" t="s">
+      <c r="AA69" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB69" s="34" t="s">
+      <c r="AB69" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:28">
-      <c r="A70" s="33">
+      <c r="A70" s="34">
         <v>44079.4645717593</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="35" t="s">
         <v>759</v>
       </c>
-      <c r="C70" s="35">
+      <c r="C70" s="36">
         <v>89588588090</v>
       </c>
-      <c r="D70" s="34" t="s">
+      <c r="D70" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E70" s="34" t="s">
+      <c r="E70" s="35" t="s">
         <v>760</v>
       </c>
-      <c r="F70" s="34" t="s">
+      <c r="F70" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G70" s="34" t="s">
+      <c r="G70" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H70" s="34" t="s">
+      <c r="H70" s="35" t="s">
         <v>760</v>
       </c>
-      <c r="I70" s="34" t="s">
+      <c r="I70" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="J70" s="34" t="s">
+      <c r="J70" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="K70" s="35">
+      <c r="K70" s="36">
         <v>4003291105</v>
       </c>
-      <c r="L70" s="34" t="s">
+      <c r="L70" s="35" t="s">
         <v>761</v>
       </c>
-      <c r="M70" s="34">
+      <c r="M70" s="35">
         <v>79588588090</v>
       </c>
-      <c r="N70" s="34" t="s">
+      <c r="N70" s="35" t="s">
         <v>762</v>
       </c>
-      <c r="O70" s="34" t="s">
+      <c r="O70" s="35" t="s">
         <v>763</v>
       </c>
-      <c r="P70" s="34" t="s">
+      <c r="P70" s="35" t="s">
         <v>764</v>
       </c>
-      <c r="Q70" s="34" t="s">
+      <c r="Q70" s="35" t="s">
         <v>765</v>
       </c>
-      <c r="R70" s="34" t="s">
+      <c r="R70" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="S70" s="34" t="s">
+      <c r="S70" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="T70" s="35">
+      <c r="T70" s="36">
         <v>13</v>
       </c>
-      <c r="U70" s="39">
+      <c r="U70" s="40">
         <v>39169</v>
       </c>
-      <c r="V70" s="34" t="s">
+      <c r="V70" s="35" t="s">
         <v>766</v>
       </c>
-      <c r="W70" s="34" t="s">
+      <c r="W70" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="X70" s="35">
+      <c r="X70" s="36">
         <v>29</v>
       </c>
-      <c r="Y70" s="35">
+      <c r="Y70" s="36">
         <v>7</v>
       </c>
-      <c r="Z70" s="35">
+      <c r="Z70" s="36">
         <v>89117830092</v>
       </c>
-      <c r="AA70" s="34" t="s">
+      <c r="AA70" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB70" s="34" t="s">
+      <c r="AB70" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:28">
-      <c r="A71" s="33">
+      <c r="A71" s="34">
         <v>44079.6053240741</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="35" t="s">
         <v>767</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="35" t="s">
         <v>768</v>
       </c>
-      <c r="D71" s="34" t="s">
+      <c r="D71" s="35" t="s">
         <v>556</v>
       </c>
-      <c r="E71" s="34" t="s">
+      <c r="E71" s="35" t="s">
         <v>769</v>
       </c>
-      <c r="F71" s="34" t="s">
+      <c r="F71" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="34" t="s">
+      <c r="G71" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="34"/>
-      <c r="O71" s="34"/>
-      <c r="P71" s="34"/>
-      <c r="Q71" s="34"/>
-      <c r="R71" s="34"/>
-      <c r="S71" s="34"/>
-      <c r="T71" s="34"/>
-      <c r="U71" s="34"/>
-      <c r="V71" s="34"/>
-      <c r="W71" s="34"/>
-      <c r="X71" s="34"/>
-      <c r="Y71" s="34"/>
-      <c r="Z71" s="34"/>
-      <c r="AA71" s="34"/>
-      <c r="AB71" s="34"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="35"/>
+      <c r="U71" s="35"/>
+      <c r="V71" s="35"/>
+      <c r="W71" s="35"/>
+      <c r="X71" s="35"/>
+      <c r="Y71" s="35"/>
+      <c r="Z71" s="35"/>
+      <c r="AA71" s="35"/>
+      <c r="AB71" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="F1:F71">
@@ -12781,10 +12783,10 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="27">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>775</v>
       </c>
       <c r="C2" s="11">
@@ -12801,10 +12803,10 @@
       </c>
     </row>
     <row r="3" ht="39.6" spans="1:6">
-      <c r="A3" s="27">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>776</v>
       </c>
       <c r="C3" s="15"/>
@@ -12817,10 +12819,10 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="27">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>777</v>
       </c>
       <c r="C4" s="15"/>
@@ -12833,30 +12835,30 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="27">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>778</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="29">
         <v>9</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="29">
         <v>15</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="29">
         <v>89062470003</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="29" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="27">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>779</v>
       </c>
       <c r="C6" s="11">
@@ -12873,10 +12875,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="27">
+      <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>780</v>
       </c>
       <c r="C7" s="11">
@@ -12893,10 +12895,10 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="27">
+      <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>781</v>
       </c>
       <c r="C8" s="11">
@@ -12913,10 +12915,10 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="27">
+      <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>782</v>
       </c>
       <c r="C9" s="11">
@@ -12933,10 +12935,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="27">
+      <c r="A10" s="28">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>783</v>
       </c>
       <c r="C10" s="11">
@@ -12953,10 +12955,10 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="27">
+      <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>784</v>
       </c>
       <c r="C11" s="11">
@@ -12973,10 +12975,10 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="27">
+      <c r="A12" s="28">
         <v>11</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>785</v>
       </c>
       <c r="C12" s="11">
@@ -12993,10 +12995,10 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="27">
+      <c r="A13" s="28">
         <v>12</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="28" t="s">
         <v>786</v>
       </c>
       <c r="C13" s="15"/>
@@ -13009,10 +13011,10 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="27">
+      <c r="A14" s="28">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>787</v>
       </c>
       <c r="C14" s="11">
@@ -13029,10 +13031,10 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="27">
+      <c r="A15" s="28">
         <v>14</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="28" t="s">
         <v>788</v>
       </c>
       <c r="C15" s="15"/>
@@ -13045,10 +13047,10 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="27">
+      <c r="A16" s="28">
         <v>15</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>789</v>
       </c>
       <c r="C16" s="11">
@@ -13065,30 +13067,30 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="27">
+      <c r="A17" s="28">
         <v>16</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="28" t="s">
         <v>790</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="29">
         <v>6</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="29">
         <v>11</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="29" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" ht="39.6" spans="1:6">
-      <c r="A18" s="27">
+      <c r="A18" s="28">
         <v>17</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="28" t="s">
         <v>791</v>
       </c>
       <c r="C18" s="11">
@@ -13105,10 +13107,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="27">
+      <c r="A19" s="28">
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="28" t="s">
         <v>792</v>
       </c>
       <c r="C19" s="11">
@@ -13125,30 +13127,30 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="27">
+      <c r="A20" s="28">
         <v>19</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="28" t="s">
         <v>793</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="29">
         <v>8</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="29">
         <v>13</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="29" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3">
@@ -13335,8 +13337,8 @@
       <c r="B3" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="8" t="s">
         <v>319</v>
       </c>
@@ -13613,12 +13615,12 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3">
@@ -13774,16 +13776,16 @@
       <c r="E1" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="F1" s="19">
+      <c r="F1" s="20">
         <v>44100</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="20">
         <v>44107</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>820</v>
       </c>
-      <c r="I1" s="19">
+      <c r="I1" s="20">
         <v>44142</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -13801,8 +13803,8 @@
       <c r="N1" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="8">
@@ -13827,9 +13829,9 @@
       <c r="N2" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="8">
@@ -14016,9 +14018,9 @@
       <c r="N7" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="3">
@@ -14059,9 +14061,9 @@
       <c r="N8" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="8">
@@ -14236,9 +14238,9 @@
       <c r="N14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="8">
@@ -14267,9 +14269,9 @@
       <c r="N15" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="8">
@@ -14340,9 +14342,9 @@
       <c r="N17" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="8">
@@ -14379,9 +14381,9 @@
       <c r="N18" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="8">
@@ -14424,9 +14426,9 @@
       <c r="N19" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="8">
@@ -14455,9 +14457,9 @@
       <c r="N20" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="8">
@@ -14486,9 +14488,9 @@
       <c r="N21" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="8">
@@ -14517,9 +14519,9 @@
       <c r="N22" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="8">
@@ -14552,9 +14554,9 @@
       <c r="N23" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="8">
@@ -14595,9 +14597,9 @@
       <c r="N24" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="8">
@@ -14626,9 +14628,9 @@
       <c r="N25" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="8">
@@ -14653,9 +14655,9 @@
       <c r="N26" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="8">
@@ -14698,9 +14700,9 @@
       <c r="N27" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="8">
@@ -14777,9 +14779,9 @@
       <c r="N29" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="8">
@@ -14818,9 +14820,9 @@
       <c r="N30" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="8">
@@ -14843,9 +14845,9 @@
       <c r="N31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="8">
@@ -14880,9 +14882,9 @@
       <c r="N32" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="8">
@@ -14917,9 +14919,9 @@
       <c r="N33" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="8">
@@ -14954,12 +14956,12 @@
       <c r="N34" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="20">
+      <c r="A35" s="21">
         <v>3</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -14985,9 +14987,9 @@
       <c r="N35" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="8">
@@ -15016,9 +15018,9 @@
       <c r="N36" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
     </row>
     <row r="37" ht="10" customHeight="1" spans="1:17">
       <c r="A37" s="8">
@@ -15061,9 +15063,9 @@
       <c r="N37" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="3">
@@ -15106,9 +15108,9 @@
       <c r="N38" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="20"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="21"/>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" t="s">
@@ -15252,14 +15254,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -15270,9 +15272,10 @@
     <col min="5" max="5" width="27.1851851851852" customWidth="1"/>
     <col min="6" max="6" width="13.6666666666667" customWidth="1"/>
     <col min="8" max="12" width="2.66666666666667" customWidth="1"/>
+    <col min="13" max="13" width="10.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>816</v>
       </c>
@@ -15293,6 +15296,9 @@
       </c>
       <c r="G1" s="2">
         <v>44240</v>
+      </c>
+      <c r="M1" s="19">
+        <v>44247</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -15325,7 +15331,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>823</v>
       </c>
@@ -15347,8 +15353,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>824</v>
       </c>
@@ -15370,8 +15379,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
         <v>825</v>
       </c>
@@ -15393,8 +15405,14 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
         <v>826</v>
       </c>
@@ -15414,6 +15432,9 @@
         <v>1</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>1</v>
       </c>
     </row>
@@ -15559,7 +15580,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
         <v>832</v>
       </c>
@@ -15590,8 +15611,11 @@
       <c r="J16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="3" t="s">
         <v>833</v>
       </c>
@@ -15610,8 +15634,11 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
         <v>834</v>
       </c>
@@ -15635,6 +15662,9 @@
       </c>
       <c r="H18">
         <v>2</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -15752,7 +15782,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
         <v>842</v>
       </c>
@@ -15777,8 +15807,11 @@
       <c r="H26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
         <v>843</v>
       </c>
@@ -15811,6 +15844,9 @@
       </c>
       <c r="K27">
         <v>2</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -15943,7 +15979,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>850</v>
       </c>
@@ -15974,8 +16010,11 @@
       <c r="J35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="10" t="s">
         <v>797</v>
       </c>
@@ -15995,6 +16034,9 @@
         <v>1</v>
       </c>
       <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="M36">
         <v>1</v>
       </c>
     </row>
@@ -16006,7 +16048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" ht="13.8" spans="1:6">
+    <row r="38" ht="13.8" spans="1:13">
       <c r="A38" t="s">
         <v>852</v>
       </c>
@@ -16014,6 +16056,9 @@
         <v>853</v>
       </c>
       <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="M38">
         <v>1</v>
       </c>
     </row>
@@ -16030,7 +16075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" ht="13.8" spans="1:7">
+    <row r="41" ht="13.8" spans="1:13">
       <c r="A41" t="s">
         <v>856</v>
       </c>
@@ -16052,8 +16097,11 @@
       <c r="G41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" ht="13.8" spans="1:8">
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" ht="13.8" spans="1:14">
       <c r="A42" t="s">
         <v>859</v>
       </c>
@@ -16072,12 +16120,21 @@
       <c r="H42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>862</v>
       </c>
       <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="M43">
         <v>1</v>
       </c>
     </row>

--- a/Рабочие материалы/Реальные группы/Новички_2020.xlsx
+++ b/Рабочие материалы/Реальные группы/Новички_2020.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Form Responses 1'!$F$1:$F$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ВМ!$A$1:$N$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'После карантина'!$A$1:$F$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'После карантина'!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
@@ -2623,13 +2623,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="180" formatCode="dd\,mm\,yyyy"/>
+    <numFmt numFmtId="179" formatCode="dd\,mm\,yyyy"/>
+    <numFmt numFmtId="180" formatCode="dd\.mmm"/>
     <numFmt numFmtId="181" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
   <fonts count="23">
@@ -2664,6 +2664,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2675,8 +2689,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2689,6 +2719,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -2712,44 +2766,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -2765,7 +2781,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -2786,21 +2801,6 @@
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2825,7 +2825,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2837,7 +2855,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2849,31 +2915,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2891,61 +2987,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2957,55 +3005,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3049,26 +3049,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3084,16 +3090,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3114,17 +3120,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3149,155 +3149,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3338,8 +3338,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -15262,14 +15262,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
+      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -15283,9 +15283,11 @@
     <col min="13" max="13" width="10.8888888888889"/>
     <col min="14" max="14" width="2.66666666666667" customWidth="1"/>
     <col min="15" max="15" width="10.8888888888889"/>
+    <col min="22" max="22" width="2.66666666666667" customWidth="1"/>
+    <col min="23" max="23" width="7.44444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>816</v>
       </c>
@@ -15313,8 +15315,11 @@
       <c r="O1" s="27">
         <v>44254</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="W1" s="2">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="3" t="s">
         <v>823</v>
       </c>
@@ -15359,6 +15364,9 @@
       </c>
       <c r="U2">
         <v>17</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -15411,7 +15419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:23">
       <c r="A4" s="3" t="s">
         <v>826</v>
       </c>
@@ -15457,8 +15465,11 @@
       <c r="U4">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="W4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="3" t="s">
         <v>842</v>
       </c>
@@ -15507,8 +15518,14 @@
       <c r="U5">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" ht="13.8" spans="1:21">
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" spans="1:23">
       <c r="A6" s="3" t="s">
         <v>856</v>
       </c>
@@ -15554,8 +15571,11 @@
       <c r="U6">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" ht="13.8" spans="1:21">
+      <c r="W6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" spans="1:23">
       <c r="A7" s="3" t="s">
         <v>859</v>
       </c>
@@ -15603,8 +15623,11 @@
       <c r="U7">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="W7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="3" t="s">
         <v>862</v>
       </c>
@@ -15639,8 +15662,11 @@
       <c r="U8">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="W8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="3" t="s">
         <v>833</v>
       </c>
@@ -15683,8 +15709,11 @@
       <c r="U9">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="W9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="3" t="s">
         <v>834</v>
       </c>
@@ -15733,8 +15762,14 @@
       <c r="U10">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="3" t="s">
         <v>843</v>
       </c>
@@ -15792,8 +15827,14 @@
       <c r="U11">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="3" t="s">
         <v>847</v>
       </c>
@@ -15847,8 +15888,14 @@
       <c r="U12">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="3" t="s">
         <v>850</v>
       </c>
@@ -15902,6 +15949,12 @@
       </c>
       <c r="U13">
         <v>26</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="13.8" spans="1:21">
@@ -15983,7 +16036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:23">
       <c r="A16" s="12" t="s">
         <v>824</v>
       </c>
@@ -16006,6 +16059,9 @@
         <v>1</v>
       </c>
       <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="W16">
         <v>1</v>
       </c>
     </row>
@@ -16038,7 +16094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:23">
       <c r="A18" s="12" t="s">
         <v>832</v>
       </c>
@@ -16073,6 +16129,9 @@
         <v>1</v>
       </c>
       <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="W18">
         <v>1</v>
       </c>
     </row>
@@ -16468,7 +16527,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F20">
+  <autoFilter ref="A1:F21">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:R21">

--- a/Рабочие материалы/Реальные группы/Новички_2020.xlsx
+++ b/Рабочие материалы/Реальные группы/Новички_2020.xlsx
@@ -2623,13 +2623,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\,mm\,yyyy"/>
-    <numFmt numFmtId="180" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="178" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="180" formatCode="dd\,mm\,yyyy"/>
     <numFmt numFmtId="181" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
   <fonts count="23">
@@ -2662,16 +2662,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2683,44 +2699,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2736,6 +2722,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -2743,24 +2737,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2782,6 +2768,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -2789,18 +2790,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2825,7 +2825,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2843,49 +2903,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2903,7 +2939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2915,7 +2951,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2927,37 +2975,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2969,43 +2993,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3049,17 +3049,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3081,11 +3075,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3105,6 +3097,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3120,6 +3123,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3128,176 +3146,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3338,8 +3338,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -15262,14 +15262,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
+      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -15287,7 +15287,7 @@
     <col min="23" max="23" width="7.44444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>816</v>
       </c>
@@ -15318,8 +15318,11 @@
       <c r="W1" s="2">
         <v>44268</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="2">
+        <v>44275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="3" t="s">
         <v>823</v>
       </c>
@@ -15366,6 +15369,9 @@
         <v>17</v>
       </c>
       <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
         <v>1</v>
       </c>
     </row>
@@ -15419,7 +15425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" s="3" t="s">
         <v>826</v>
       </c>
@@ -15468,8 +15474,11 @@
       <c r="W4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="3" t="s">
         <v>842</v>
       </c>
@@ -15524,8 +15533,11 @@
       <c r="W5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" ht="13.8" spans="1:23">
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" spans="1:24">
       <c r="A6" s="3" t="s">
         <v>856</v>
       </c>
@@ -15574,8 +15586,11 @@
       <c r="W6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" ht="13.8" spans="1:23">
+      <c r="X6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" spans="1:24">
       <c r="A7" s="3" t="s">
         <v>859</v>
       </c>
@@ -15624,6 +15639,9 @@
         <v>17</v>
       </c>
       <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
         <v>1</v>
       </c>
     </row>
@@ -15713,7 +15731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" s="3" t="s">
         <v>834</v>
       </c>
@@ -15768,8 +15786,11 @@
       <c r="W10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="3" t="s">
         <v>843</v>
       </c>
@@ -15833,8 +15854,11 @@
       <c r="W11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="3" t="s">
         <v>847</v>
       </c>
@@ -15894,8 +15918,11 @@
       <c r="W12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="3" t="s">
         <v>850</v>
       </c>
@@ -15954,6 +15981,9 @@
         <v>2</v>
       </c>
       <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
         <v>1</v>
       </c>
     </row>
@@ -16036,7 +16066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" s="12" t="s">
         <v>824</v>
       </c>
@@ -16064,8 +16094,11 @@
       <c r="W16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="X16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="12" t="s">
         <v>828</v>
       </c>
@@ -16093,8 +16126,11 @@
       <c r="I17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="12" t="s">
         <v>832</v>
       </c>
@@ -16132,6 +16168,9 @@
         <v>1</v>
       </c>
       <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
         <v>1</v>
       </c>
     </row>

--- a/Рабочие материалы/Реальные группы/Новички_2020.xlsx
+++ b/Рабочие материалы/Реальные группы/Новички_2020.xlsx
@@ -2623,10 +2623,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="dd\.mmm"/>
     <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="180" formatCode="dd\,mm\,yyyy"/>
@@ -2668,29 +2668,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -2699,14 +2676,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2721,8 +2691,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2736,37 +2713,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
@@ -2774,9 +2720,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2797,8 +2757,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2825,7 +2825,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2837,7 +2849,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2849,7 +2873,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2861,13 +2963,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2879,133 +2999,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3049,11 +3049,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3069,15 +3104,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3099,26 +3125,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3137,106 +3146,133 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3245,52 +3281,16 @@
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15262,14 +15262,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
+      <selection pane="bottomRight" activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -15287,7 +15287,7 @@
     <col min="23" max="23" width="7.44444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>816</v>
       </c>
@@ -15320,6 +15320,9 @@
       </c>
       <c r="X1" s="2">
         <v>44275</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>44289</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -15375,7 +15378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:25">
       <c r="A3" s="3" t="s">
         <v>825</v>
       </c>
@@ -15423,6 +15426,9 @@
       </c>
       <c r="U3">
         <v>17</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -15537,7 +15543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="13.8" spans="1:24">
+    <row r="6" ht="13.8" spans="1:25">
       <c r="A6" s="3" t="s">
         <v>856</v>
       </c>
@@ -15589,8 +15595,11 @@
       <c r="X6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" ht="13.8" spans="1:24">
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" spans="1:25">
       <c r="A7" s="3" t="s">
         <v>859</v>
       </c>
@@ -15642,6 +15651,9 @@
         <v>1</v>
       </c>
       <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
         <v>1</v>
       </c>
     </row>
@@ -15684,7 +15696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:25">
       <c r="A9" s="3" t="s">
         <v>833</v>
       </c>
@@ -15730,8 +15742,11 @@
       <c r="W9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="3" t="s">
         <v>834</v>
       </c>
@@ -15789,8 +15804,11 @@
       <c r="X10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="3" t="s">
         <v>843</v>
       </c>
@@ -15857,8 +15875,11 @@
       <c r="X11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="3" t="s">
         <v>847</v>
       </c>
@@ -15919,6 +15940,9 @@
         <v>1</v>
       </c>
       <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
         <v>1</v>
       </c>
     </row>
@@ -16025,7 +16049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:25">
       <c r="A15" s="11" t="s">
         <v>798</v>
       </c>
@@ -16064,6 +16088,9 @@
       </c>
       <c r="U15">
         <v>26</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -16130,7 +16157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:25">
       <c r="A18" s="12" t="s">
         <v>832</v>
       </c>
@@ -16173,8 +16200,11 @@
       <c r="X18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="Y18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="12" t="s">
         <v>845</v>
       </c>
@@ -16194,8 +16224,11 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="Y19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="18" t="s">
         <v>797</v>
       </c>
@@ -16221,6 +16254,9 @@
         <v>1</v>
       </c>
       <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
         <v>1</v>
       </c>
     </row>

--- a/Рабочие материалы/Реальные группы/Новички_2020.xlsx
+++ b/Рабочие материалы/Реальные группы/Новички_2020.xlsx
@@ -2623,8 +2623,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="dd\.mmm"/>
@@ -2662,13 +2662,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -2676,36 +2669,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -2720,8 +2689,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2737,13 +2722,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2765,9 +2743,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2781,7 +2781,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -2798,9 +2798,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2825,7 +2825,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2837,31 +2927,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2873,25 +2945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2903,85 +2957,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3005,7 +2987,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3049,46 +3049,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3126,171 +3097,200 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15262,14 +15262,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y46"/>
+  <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y10" sqref="Y10"/>
+      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -15285,9 +15285,10 @@
     <col min="15" max="15" width="10.8888888888889"/>
     <col min="22" max="22" width="2.66666666666667" customWidth="1"/>
     <col min="23" max="23" width="7.44444444444444" customWidth="1"/>
+    <col min="26" max="26" width="10.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>816</v>
       </c>
@@ -15323,6 +15324,9 @@
       </c>
       <c r="Y1" s="2">
         <v>44289</v>
+      </c>
+      <c r="Z1" s="27">
+        <v>44296</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -15431,7 +15435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
         <v>826</v>
       </c>
@@ -15483,8 +15487,11 @@
       <c r="X4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Z4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="3" t="s">
         <v>842</v>
       </c>
@@ -15542,8 +15549,11 @@
       <c r="X5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" ht="13.8" spans="1:25">
+      <c r="Z5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" spans="1:26">
       <c r="A6" s="3" t="s">
         <v>856</v>
       </c>
@@ -15598,8 +15608,11 @@
       <c r="Y6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" ht="13.8" spans="1:25">
+      <c r="Z6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" spans="1:26">
       <c r="A7" s="3" t="s">
         <v>859</v>
       </c>
@@ -15654,6 +15667,9 @@
         <v>1</v>
       </c>
       <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
         <v>1</v>
       </c>
     </row>
@@ -15746,7 +15762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10" s="3" t="s">
         <v>834</v>
       </c>
@@ -15807,8 +15823,11 @@
       <c r="Y10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="3" t="s">
         <v>843</v>
       </c>
@@ -15878,8 +15897,11 @@
       <c r="Y11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="3" t="s">
         <v>847</v>
       </c>
@@ -15945,8 +15967,11 @@
       <c r="Y12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Z12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="3" t="s">
         <v>850</v>
       </c>
@@ -16010,8 +16035,11 @@
       <c r="X13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" ht="13.8" spans="1:21">
+      <c r="Z13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="13.8" spans="1:26">
       <c r="A14" s="3" t="s">
         <v>852</v>
       </c>
@@ -16048,6 +16076,9 @@
       <c r="U14">
         <v>26</v>
       </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="11" t="s">
@@ -16125,7 +16156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:26">
       <c r="A17" s="12" t="s">
         <v>828</v>
       </c>
@@ -16156,8 +16187,11 @@
       <c r="X17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="12" t="s">
         <v>832</v>
       </c>
@@ -16203,8 +16237,11 @@
       <c r="Y18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="12" t="s">
         <v>845</v>
       </c>
@@ -16227,8 +16264,11 @@
       <c r="Y19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="18" t="s">
         <v>797</v>
       </c>
@@ -16257,6 +16297,9 @@
         <v>1</v>
       </c>
       <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
         <v>1</v>
       </c>
     </row>
